--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{788A3D1F-DB27-4F1F-B71F-CC406E9111C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D976321-3F64-4303-B073-69C0E38C11CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -959,6 +950,15 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>Dividend</t>
@@ -1520,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2155,6 +2155,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3569,7 +3570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3580,29 +3581,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3618,23 +3619,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3642,15 +3644,15 @@
         <v>28698864088</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3674,15 +3676,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3696,25 +3698,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3723,16 +3725,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3741,7 +3743,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3872,7 +3874,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>0</v>
@@ -4170,11 +4172,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6875881142317812E-2</v>
+        <v>1.3531799973841708E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4219,7 +4221,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4653,7 +4655,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4661,7 +4663,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>268</v>
@@ -4671,11 +4673,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4689,10 +4691,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4741,7 +4743,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4762,7 +4764,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4780,7 +4782,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4887,7 +4889,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4923,8 +4925,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4967,17 +4969,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>1766.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.58</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4987,40 +4989,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>中国中车</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>28698864088</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>131440.79752304</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>424169.2035572165</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5043,11 +5045,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5067,7 +5069,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734576781590779</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5110,7 +5112,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5160,7 +5162,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5200,7 +5202,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5234,7 +5236,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.61251693706354315</v>
+        <v>2.121836798870131</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5250,12 +5252,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>7.9143102699204701E-2</v>
+        <v>2.2846474752834817E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5282,7 +5284,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6875881142317812E-2</v>
+        <v>1.3531799973841708E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5299,12 +5301,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5312,22 +5314,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.5844849599972735</v>
+        <v>1.255492492878296</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.0456662503425567</v>
+        <v>2.413283312657287</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.8640999529379689</v>
-      </c>
-      <c r="G29" s="271">
+        <v>1.4770499916215247</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6484054350804844</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>2.0985072283976409</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5375,7 +5377,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5385,7 +5387,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5412,7 +5414,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6358,12 +6360,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6849,7 +6848,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6900,7 +6899,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6951,7 +6950,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7002,7 +7001,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7104,7 +7103,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7257,7 +7256,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8328,7 +8327,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8397,7 +8396,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8601,7 +8600,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10424,11 +10423,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-141288776.55137879</v>
+        <v>-175951565.30113688</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7067739072990378</v>
+        <v>1.8801688169339075</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11495,7 +11494,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11515,11 +11514,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
+        <v>2.121836798870131</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>39516717</v>
+        <v>83848024.301136881</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11551,11 +11550,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>21003076</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11566,11 +11565,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11582,11 +11581,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11800,19 +11799,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11822,18 +11821,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11910,7 +11909,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11970,7 +11969,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12033,7 +12032,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12063,7 +12062,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12200,17 +12199,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9143102699204701E-2</v>
+        <v>2.2846474752834817E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9143102699204701E-2</v>
+        <v>2.2846474752834817E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9143102699204701E-2</v>
+        <v>2.2846474752834817E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12251,17 +12250,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6875881142317812E-2</v>
+        <v>1.3531799973841708E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6875881142317812E-2</v>
+        <v>1.3531799973841708E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6875881142317812E-2</v>
+        <v>1.3531799973841708E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12292,15 +12291,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12321,14 +12320,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.3678580528263424</v>
+        <v>5.2506538770608717</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.3678580528263424</v>
+        <v>5.2506538770608717</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12346,14 +12345,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>3.7493708385601945</v>
+        <v>2.9708751169447676</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>3.7493708385601945</v>
+        <v>2.9708751169447676</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12379,7 +12378,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12396,21 +12395,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>105127601.49805048</v>
+        <v>74918469.443110913</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.663127612845416</v>
+        <v>2.6105029527784325</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.663127612845416</v>
+        <v>2.6105029527784325</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.2043599185563796</v>
+        <v>3.7088516619162841</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12420,14 +12419,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42419523.279289365</v>
+        <v>83848024.301136881</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4780906710877959</v>
+        <v>2.92164958320412</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12459,27 +12458,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>62708078.218761116</v>
+        <v>-8929554.8580259681</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.8572814004939771</v>
+        <v>0</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.1850369417576201</v>
+        <v>0</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.1850369417576201</v>
+        <v>0</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.1850369417576201</v>
+        <v>0</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.7262692474685837</v>
+        <v>0.78720207871216408</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12503,7 +12502,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12520,27 +12519,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53497551.195813961</v>
+        <v>42389656.960727677</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5844849599972735</v>
+        <v>1.255492492878296</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.8640999529379689</v>
+        <v>1.4770499916215247</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.8640999529379689</v>
+        <v>1.4770499916215247</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.8640999529379689</v>
+        <v>1.4770499916215247</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6484054350804844</v>
+        <v>2.0985072283976409</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12564,7 +12563,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12581,27 +12580,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>58102814.707287543</v>
+        <v>21194828.480363838</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7208831802456253</v>
+        <v>0.627746246439148</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.0245684473477947</v>
+        <v>0.73852499581076236</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.0245684473477947</v>
+        <v>0.73852499581076236</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.0245684473477947</v>
+        <v>0.73852499581076236</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.1873373412745343</v>
+        <v>1.4428546535549025</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D976321-3F64-4303-B073-69C0E38C11CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70C12B4E-4D0F-4921-9C5D-005A79BF22D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -934,6 +931,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1520,7 +1521,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2156,6 +2157,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3570,7 +3574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3584,12 +3588,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>260</v>
@@ -3597,7 +3601,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>261</v>
@@ -3621,7 +3625,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
@@ -3630,7 +3634,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>262</v>
@@ -3638,7 +3642,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>28698864088</v>
@@ -3646,7 +3650,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>263</v>
@@ -3670,7 +3674,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3678,7 +3682,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>264</v>
@@ -3695,7 +3699,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>265</v>
@@ -3704,16 +3708,16 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>266</v>
@@ -3722,7 +3726,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>266</v>
@@ -3731,7 +3735,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>265</v>
@@ -3740,7 +3744,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>267</v>
@@ -3874,7 +3878,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>0</v>
@@ -4154,7 +4158,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <v>0.2</v>
@@ -4172,11 +4176,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.3531799973841708E-2</v>
+        <v>4.71937141138992E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4221,13 +4225,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4635,7 +4639,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>160389894</v>
@@ -4655,7 +4659,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4663,7 +4667,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>268</v>
@@ -4673,16 +4677,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4691,10 +4695,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4743,7 +4747,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4764,7 +4768,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4782,7 +4786,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4839,7 +4843,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4926,7 +4930,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4967,19 +4971,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>1766.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>4.55</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4987,42 +4991,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>中国中车</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>28698864088</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>424169.2035572165</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>130579.83160039999</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5045,16 +5049,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5069,7 +5073,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736569960912068</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5079,40 +5083,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5125,29 +5129,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5157,12 +5161,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5172,7 +5176,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5180,7 +5184,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5194,7 +5198,7 @@
         <v>0.78463553343209413</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5202,7 +5206,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5213,14 +5217,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>1.2515926965280349E-5</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5232,11 +5236,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.121836798870131</v>
+        <v>0.60839185214691649</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5248,16 +5252,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>2.2846474752834817E-2</v>
+        <v>259</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>12.550245313061588</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5280,11 +5284,11 @@
         <v>5.5156426590839844E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.3531799973841708E-2</v>
+        <v>4.71937141138992E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5301,12 +5305,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5314,42 +5318,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.255492492878296</v>
+        <v>1.587186331643484</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.413283312657287</v>
+        <v>3.0508587745130034</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.4770499916215247</v>
-      </c>
-      <c r="G29" s="272">
+        <v>1.8672780372276283</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.0985072283976409</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>2.6529206734895685</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5359,7 +5363,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5370,14 +5374,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5387,7 +5391,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5397,14 +5401,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5414,7 +5418,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5429,14 +5433,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6421,16 +6425,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6448,7 +6452,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6481,7 +6485,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6848,7 +6852,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6899,7 +6903,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6950,7 +6954,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7001,7 +7005,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7103,7 +7107,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7256,7 +7260,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8327,7 +8331,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8396,7 +8400,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8600,7 +8604,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10423,11 +10427,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-175951565.30113688</v>
+        <v>-141315010.82902962</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.8801688169339075</v>
+        <v>1.7069051399657293</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10498,7 +10502,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11494,7 +11498,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11514,11 +11518,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.121836798870131</v>
+        <v>1</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>83848024.301136881</v>
+        <v>39516717</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11550,11 +11554,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>21003076</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11565,11 +11569,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11581,11 +11585,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11799,19 +11803,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11821,18 +11825,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11909,7 +11913,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11969,7 +11973,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12032,7 +12036,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12062,7 +12066,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12195,28 +12199,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2846474752834817E-2</v>
+        <v>7.9679717412316747E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2846474752834817E-2</v>
+        <v>7.9679717412316747E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2846474752834817E-2</v>
+        <v>7.9679717412316747E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12246,21 +12250,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3531799973841708E-2</v>
+        <v>4.71937141138992E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3531799973841708E-2</v>
+        <v>4.71937141138992E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3531799973841708E-2</v>
+        <v>4.71937141138992E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12291,15 +12295,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12316,24 +12320,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>5.2506538770608717</v>
+        <v>7.3875664432174117</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>5.2506538770608717</v>
+        <v>7.3875664432174117</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12341,18 +12345,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.9708751169447676</v>
+        <v>3.7557631012386814</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.9708751169447676</v>
+        <v>3.7557631012386814</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12371,14 +12375,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12395,21 +12399,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>74918469.443110913</v>
+        <v>105408808.8443844</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.6105029527784325</v>
+        <v>3.6729261660380321</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.6105029527784325</v>
+        <v>3.6729261660380321</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.7088516619162841</v>
+        <v>5.2182811364022088</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12419,14 +12423,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>83848024.301136881</v>
+        <v>42427399.669606328</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>2.92164958320412</v>
+        <v>1.4783651206371862</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12458,27 +12462,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-8929554.8580259681</v>
+        <v>62981409.174778074</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0</v>
+        <v>1.8653768885907189</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0</v>
+        <v>2.194561045400846</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0</v>
+        <v>2.194561045400846</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0</v>
+        <v>2.194561045400846</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>0.78720207871216408</v>
+        <v>3.7399160157650226</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12495,14 +12499,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12519,27 +12523,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>42389656.960727677</v>
+        <v>53588758.604903109</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.255492492878296</v>
+        <v>1.587186331643484</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4770499916215247</v>
+        <v>1.8672780372276283</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4770499916215247</v>
+        <v>1.8672780372276283</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4770499916215247</v>
+        <v>1.8672780372276283</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.0985072283976409</v>
+        <v>2.6529206734895685</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12549,21 +12553,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12576,31 +12580,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>21194828.480363838</v>
+        <v>58285083.889840581</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.627746246439148</v>
+        <v>1.7262816101171015</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.73852499581076236</v>
+        <v>2.0309195413142369</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.73852499581076236</v>
+        <v>2.0309195413142369</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.73852499581076236</v>
+        <v>2.0309195413142369</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.4428546535549025</v>
+        <v>3.1964183446272956</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70C12B4E-4D0F-4921-9C5D-005A79BF22D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{736667DB-24C6-4DDD-8A23-063CB62B926A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -963,6 +960,10 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3588,28 +3589,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45593</v>
@@ -3617,7 +3618,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3625,24 +3626,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>28698864088</v>
@@ -3650,15 +3651,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3666,7 +3667,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
@@ -3674,7 +3675,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3682,15 +3683,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3699,61 +3700,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3802,7 +3803,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>234261514</v>
@@ -3822,7 +3823,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>183809908</v>
@@ -3842,7 +3843,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>37506984</v>
@@ -3862,7 +3863,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3878,7 +3879,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="151">
         <v>0</v>
@@ -3898,7 +3899,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>2199</v>
@@ -3918,7 +3919,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151">
         <v>-169280</v>
@@ -3938,7 +3939,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151">
         <v>35974</v>
@@ -3958,7 +3959,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151">
         <v>15312</v>
@@ -3978,7 +3979,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151">
@@ -3996,7 +3997,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151">
@@ -4014,7 +4015,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151">
@@ -4032,7 +4033,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151">
@@ -4050,7 +4051,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151">
@@ -4068,7 +4069,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151">
@@ -4086,7 +4087,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151">
@@ -4104,7 +4105,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151">
@@ -4122,7 +4123,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151">
@@ -4140,7 +4141,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151">
@@ -4158,7 +4159,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <v>0.2</v>
@@ -4176,11 +4177,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.71937141138992E-2</v>
+        <v>4.5617093431188707E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4225,21 +4226,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59">
         <v>47742240</v>
@@ -4251,7 +4252,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59">
         <v>0</v>
@@ -4263,7 +4264,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59">
         <v>121633388</v>
@@ -4276,7 +4277,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59">
         <v>7768559</v>
@@ -4288,7 +4289,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59">
         <v>0</v>
@@ -4300,7 +4301,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4313,7 +4314,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59">
         <v>44533603</v>
@@ -4325,7 +4326,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59">
         <v>86201047</v>
@@ -4338,7 +4339,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59">
         <v>0</v>
@@ -4348,12 +4349,12 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59">
         <v>0</v>
@@ -4362,12 +4363,12 @@
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59">
         <v>0</v>
@@ -4380,7 +4381,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120">
         <v>11709109</v>
@@ -4393,7 +4394,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59">
         <v>0</v>
@@ -4406,7 +4407,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59">
         <v>2881955</v>
@@ -4419,7 +4420,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59">
         <v>821946</v>
@@ -4432,7 +4433,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4445,7 +4446,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59">
         <v>7301425</v>
@@ -4457,7 +4458,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59">
         <v>21620835</v>
@@ -4466,12 +4467,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59">
         <v>805212</v>
@@ -4480,12 +4481,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59">
         <v>6765810</v>
@@ -4495,12 +4496,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59">
         <v>60750263</v>
@@ -4513,7 +4514,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59">
         <v>0</v>
@@ -4526,7 +4527,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59">
         <v>17178235</v>
@@ -4538,7 +4539,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59">
         <v>4163174</v>
@@ -4551,7 +4552,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248">
         <v>37623092</v>
@@ -4563,7 +4564,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59">
         <v>12970041</v>
@@ -4571,7 +4572,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59">
         <v>13416</v>
@@ -4579,7 +4580,7 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59">
         <v>0</v>
@@ -4587,7 +4588,7 @@
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120">
         <v>9668</v>
@@ -4595,7 +4596,7 @@
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83">
         <v>255569971</v>
@@ -4603,7 +4604,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59">
         <v>6315552</v>
@@ -4611,7 +4612,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59">
         <v>1694399</v>
@@ -4619,19 +4620,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83">
         <v>24023311</v>
@@ -4639,7 +4640,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59">
         <v>160389894</v>
@@ -4647,19 +4648,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4667,15 +4668,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4683,10 +4684,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4696,19 +4697,19 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4726,7 +4727,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4747,7 +4748,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4768,7 +4769,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4786,7 +4787,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4807,7 +4808,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4825,7 +4826,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4843,7 +4844,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4971,7 +4972,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4983,15 +4984,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -5000,7 +5001,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -5011,7 +5012,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -5020,11 +5021,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>130579.83160039999</v>
+        <v>134884.66121360002</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5032,7 +5033,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -5047,7 +5048,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -5058,7 +5059,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5070,10 +5071,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736569960912068</v>
+        <v>1.0720016956329346</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5083,40 +5084,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5129,29 +5130,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5161,12 +5162,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5176,29 +5177,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.78463553343209413</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5206,7 +5207,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5217,58 +5218,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>1.2515926965280349E-5</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.60839185214691649</v>
+        <v>0.62941912734440997</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.550245313061588</v>
+        <v>12.984007634273725</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>8.8200573996119572E-5</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5277,61 +5278,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>5.5156426590839844E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.71937141138992E-2</v>
+        <v>4.5617093431188707E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.587186331643484</v>
+        <v>1.5728455110947157</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.0508587745130034</v>
+        <v>3.0232931274729218</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.8672780372276283</v>
+        <v>1.850406483640842</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6529206734895685</v>
+        <v>2.6289505456286277</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5339,21 +5340,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5363,7 +5364,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5374,14 +5375,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5391,7 +5392,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5401,14 +5402,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5418,7 +5419,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5433,14 +5434,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6420,21 +6421,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6445,14 +6446,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6474,7 +6475,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6485,7 +6486,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6496,7 +6497,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6546,7 +6547,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6597,7 +6598,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6648,7 +6649,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6699,7 +6700,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6750,7 +6751,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6801,7 +6802,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6852,7 +6853,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6903,7 +6904,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6954,7 +6955,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7005,7 +7006,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7056,7 +7057,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7107,7 +7108,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7158,7 +7159,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7209,7 +7210,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7260,7 +7261,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7311,7 +7312,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7362,7 +7363,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7413,7 +7414,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7464,7 +7465,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7515,7 +7516,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7566,7 +7567,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7617,7 +7618,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7668,7 +7669,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7719,7 +7720,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7770,7 +7771,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7821,7 +7822,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7872,7 +7873,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7923,7 +7924,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7974,7 +7975,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -8025,7 +8026,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8076,7 +8077,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8127,7 +8128,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8178,7 +8179,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8229,7 +8230,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8280,7 +8281,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8331,7 +8332,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8349,7 +8350,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8400,7 +8401,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8451,7 +8452,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8502,7 +8503,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8553,7 +8554,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8604,7 +8605,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8655,7 +8656,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8706,7 +8707,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8724,7 +8725,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8775,7 +8776,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8826,7 +8827,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8843,7 +8844,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8893,7 +8894,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8943,7 +8944,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154" t="str">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8993,7 +8994,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10352,7 +10353,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10362,12 +10363,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10381,7 +10382,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10391,7 +10392,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10409,10 +10410,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10422,21 +10423,21 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-141315010.82902962</v>
+        <v>-141097139.75564432</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7069051399657293</v>
+        <v>1.7058152756921297</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10447,7 +10448,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10459,7 +10460,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10477,7 +10478,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10496,32 +10497,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10538,7 +10539,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10549,7 +10550,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10566,7 +10567,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10577,7 +10578,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10594,7 +10595,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10605,7 +10606,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10622,7 +10623,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10633,7 +10634,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10650,7 +10651,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10660,7 +10661,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10682,7 +10683,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10704,7 +10705,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10725,7 +10726,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10750,7 +10751,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10777,7 +10778,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10798,7 +10799,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10815,7 +10816,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10827,13 +10828,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10855,7 +10856,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10875,7 +10876,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10884,7 +10885,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10904,7 +10905,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10917,7 +10918,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10937,7 +10938,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10950,7 +10951,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10967,7 +10968,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10983,7 +10984,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10992,7 +10993,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11008,7 +11009,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11018,7 +11019,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11035,7 +11036,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11045,7 +11046,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11062,7 +11063,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11072,7 +11073,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11092,7 +11093,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11102,7 +11103,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11119,7 +11120,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11129,7 +11130,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11155,7 +11156,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11182,7 +11183,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11209,7 +11210,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11230,7 +11231,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11251,7 +11252,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11272,7 +11273,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11293,7 +11294,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11310,7 +11311,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11328,7 +11329,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11347,7 +11348,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11366,7 +11367,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11383,7 +11384,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11396,7 +11397,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11413,7 +11414,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11426,7 +11427,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11443,7 +11444,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11453,7 +11454,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11470,7 +11471,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11486,14 +11487,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11505,12 +11506,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11540,7 +11541,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11551,7 +11552,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11566,7 +11567,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11577,12 +11578,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11606,11 +11607,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11620,7 +11621,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11641,7 +11642,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11662,7 +11663,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11683,7 +11684,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11698,7 +11699,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11729,11 +11730,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11743,7 +11744,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11764,7 +11765,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11779,7 +11780,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11801,7 +11802,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11809,15 +11810,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11826,22 +11827,22 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11862,7 +11863,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11892,7 +11893,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11913,7 +11914,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11943,7 +11944,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11973,7 +11974,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12004,7 +12005,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12031,12 +12032,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12066,7 +12067,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12096,7 +12097,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12126,7 +12127,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12147,7 +12148,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12178,7 +12179,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12199,28 +12200,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9679717412316747E-2</v>
+        <v>7.7017822860817819E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9679717412316747E-2</v>
+        <v>7.7017822860817819E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9679717412316747E-2</v>
+        <v>7.7017822860817819E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12250,21 +12251,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.71937141138992E-2</v>
+        <v>4.5617093431188707E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.71937141138992E-2</v>
+        <v>4.5617093431188707E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.71937141138992E-2</v>
+        <v>4.5617093431188707E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12281,27 +12282,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12320,24 +12321,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.3875664432174117</v>
+        <v>7.2856960721692339</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.3875664432174117</v>
+        <v>7.2856960721692339</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12345,18 +12346,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>3.7557631012386814</v>
+        <v>3.7218283806676076</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>3.7557631012386814</v>
+        <v>3.7218283806676076</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12375,69 +12376,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>105408808.8443844</v>
+        <v>103955280.87258761</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6729261660380321</v>
+        <v>3.6222785875366736</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6729261660380321</v>
+        <v>3.6222785875366736</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.2182811364022088</v>
+        <v>5.1463239851962044</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42427399.669606328</v>
+        <v>42361987.629846811</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4783651206371862</v>
+        <v>1.4760858652785438</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12458,31 +12459,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>62981409.174778074</v>
+        <v>61593293.242740795</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.8653768885907189</v>
+        <v>1.8242638139194103</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.194561045400846</v>
+        <v>2.1461927222581298</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.194561045400846</v>
+        <v>2.1461927222581298</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.194561045400846</v>
+        <v>2.1461927222581294</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.7399160157650226</v>
+        <v>3.6702381199176606</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12492,58 +12493,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53588758.604903109</v>
+        <v>53104564.181562521</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.587186331643484</v>
+        <v>1.5728455110947157</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.8672780372276283</v>
+        <v>1.850406483640842</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.8672780372276283</v>
+        <v>1.850406483640842</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.8672780372276283</v>
+        <v>1.850406483640842</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6529206734895685</v>
+        <v>2.6289505456286277</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12553,58 +12554,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>58285083.889840581</v>
+        <v>57348928.712151662</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7262816101171015</v>
+        <v>1.6985546625070631</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.0309195413142369</v>
+        <v>1.9982996029494859</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.0309195413142369</v>
+        <v>1.9982996029494859</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.0309195413142369</v>
+        <v>1.9982996029494857</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.1964183446272956</v>
+        <v>3.1495943327731442</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12613,7 +12614,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{736667DB-24C6-4DDD-8A23-063CB62B926A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFA6C988-9653-4E6B-8C67-697A755BE463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.5617093431188707E-2</v>
+        <v>4.5440749259991843E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4894,7 +4894,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.7</v>
+        <v>4.72</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>134884.66121360002</v>
+        <v>135458.63849535998</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5074,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0720016956329346</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62941912734440997</v>
+        <v>0.63186174539438844</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.984007634273725</v>
+        <v>13.034395317187565</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.5617093431188707E-2</v>
+        <v>4.5440749259991843E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5319,20 +5319,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.5728455110947157</v>
+        <v>1.5721060178287853</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.0232931274729218</v>
+        <v>3.0218716878636727</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.850406483640842</v>
+        <v>1.849536491563277</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6289505456286277</v>
+        <v>2.6277145111858027</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10428,11 +10428,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-141097139.75564432</v>
+        <v>-141149786.13499707</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7058152756921297</v>
+        <v>1.7060786305611328</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12204,17 +12204,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7017822860817819E-2</v>
+        <v>7.6720091393988069E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7017822860817819E-2</v>
+        <v>7.6720091393988069E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7017822860817819E-2</v>
+        <v>7.6720091393988069E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12255,17 +12255,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5617093431188707E-2</v>
+        <v>4.5440749259991843E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5617093431188707E-2</v>
+        <v>4.5440749259991843E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5617093431188707E-2</v>
+        <v>4.5440749259991843E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12325,14 +12325,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.2856960721692339</v>
+        <v>7.2783460215108926</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.2856960721692339</v>
+        <v>7.2783460215108926</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12350,14 +12350,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>3.7218283806676076</v>
+        <v>3.720078515849329</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>3.7218283806676076</v>
+        <v>3.720078515849329</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12400,21 +12400,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>103955280.87258761</v>
+        <v>103850407.35425153</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6222785875366736</v>
+        <v>3.6186243133460825</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6222785875366736</v>
+        <v>3.6186243133460825</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1463239851962044</v>
+        <v>5.1411322037081018</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12424,14 +12424,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42361987.629846811</v>
+        <v>42377793.799091339</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4760858652785438</v>
+        <v>1.4766366246812876</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12463,27 +12463,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>61593293.242740795</v>
+        <v>61472613.555160195</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.8242638139194103</v>
+        <v>1.8206895353650756</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.1461927222581298</v>
+        <v>2.1419876886647948</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.1461927222581298</v>
+        <v>2.1419876886647948</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.1461927222581294</v>
+        <v>2.1419876886647944</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.6702381199176606</v>
+        <v>3.6644955790268141</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12524,27 +12524,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53104564.181562521</v>
+        <v>53079596.397170842</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5728455110947157</v>
+        <v>1.5721060178287853</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.850406483640842</v>
+        <v>1.849536491563277</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.850406483640842</v>
+        <v>1.849536491563277</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.850406483640842</v>
+        <v>1.849536491563277</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6289505456286277</v>
+        <v>2.6277145111858027</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12585,27 +12585,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>57348928.712151662</v>
+        <v>57276104.976165518</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.6985546625070631</v>
+        <v>1.6963977765969305</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.9982996029494859</v>
+        <v>1.9957620901140358</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.9982996029494859</v>
+        <v>1.9957620901140358</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.9982996029494857</v>
+        <v>1.9957620901140358</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.1495943327731442</v>
+        <v>3.1461050451063084</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFA6C988-9653-4E6B-8C67-697A755BE463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{210DAEC0-040A-43DA-A90D-64B9AD2D8D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.5440749259991843E-2</v>
+        <v>4.5444987251260192E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5074,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.63186174539438844</v>
+        <v>0.63180282086339501</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.034395317187565</v>
+        <v>13.033179789207832</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.5440749259991843E-2</v>
+        <v>4.5444987251260192E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5319,20 +5319,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.5721060178287853</v>
+        <v>1.5722845070288327</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.0218716878636727</v>
+        <v>3.0222147763412281</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.849536491563277</v>
+        <v>1.8497464788574502</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6277145111858027</v>
+        <v>2.6280128489923724</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10428,11 +10428,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-141149786.13499707</v>
+        <v>-141162950.34489483</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7060786305611328</v>
+        <v>1.7061444823597895</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12204,17 +12204,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6720091393988069E-2</v>
+        <v>7.6727246625420867E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6720091393988069E-2</v>
+        <v>7.6727246625420867E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6720091393988069E-2</v>
+        <v>7.6727246625420867E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12255,17 +12255,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5440749259991843E-2</v>
+        <v>4.5444987251260192E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5440749259991843E-2</v>
+        <v>4.5444987251260192E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5440749259991843E-2</v>
+        <v>4.5444987251260192E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12325,14 +12325,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.2783460215108926</v>
+        <v>7.2792666932403236</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.2783460215108926</v>
+        <v>7.2792666932403236</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12350,14 +12350,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>3.720078515849329</v>
+        <v>3.720500875302748</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>3.720078515849329</v>
+        <v>3.720500875302748</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12400,21 +12400,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>103850407.35425153</v>
+        <v>103863543.87371054</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6186243133460825</v>
+        <v>3.6190820499108023</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6186243133460825</v>
+        <v>3.6190820499108023</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1411322037081018</v>
+        <v>5.1417825293539607</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12424,14 +12424,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42377793.799091339</v>
+        <v>42381746.126529098</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4766366246812876</v>
+        <v>1.4767743418893848</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12463,27 +12463,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>61472613.555160195</v>
+        <v>61481797.747181445</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.8206895353650756</v>
+        <v>1.8209615518182045</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.1419876886647948</v>
+        <v>2.1423077080214172</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.1419876886647948</v>
+        <v>2.1423077080214172</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.1419876886647944</v>
+        <v>2.1423077080214172</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.6644955790268141</v>
+        <v>3.6650081874645757</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12524,27 +12524,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53079596.397170842</v>
+        <v>53085622.793986529</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5721060178287853</v>
+        <v>1.5722845070288327</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.849536491563277</v>
+        <v>1.8497464788574502</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.849536491563277</v>
+        <v>1.8497464788574502</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.849536491563277</v>
+        <v>1.8497464788574502</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6277145111858027</v>
+        <v>2.6280128489923724</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12585,27 +12585,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>57276104.976165518</v>
+        <v>57283710.270583987</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.6963977765969305</v>
+        <v>1.6966230294235185</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.9957620901140358</v>
+        <v>1.9960270934394337</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.9957620901140358</v>
+        <v>1.9960270934394337</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.9957620901140358</v>
+        <v>1.9960270934394337</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.1461050451063084</v>
+        <v>3.1465105182284741</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{210DAEC0-040A-43DA-A90D-64B9AD2D8D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD7F3D36-238A-4548-B836-4F1AEFF599DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.5444987251260192E-2</v>
+        <v>4.5443574587504067E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5074,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.63180282086339501</v>
+        <v>0.63182246115257013</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.033179789207832</v>
+        <v>13.033584940010391</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.5444987251260192E-2</v>
+        <v>4.5443574587504067E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5319,20 +5319,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.5722845070288327</v>
+        <v>1.5722250099109869</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.0222147763412281</v>
+        <v>3.0221004121355772</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.8497464788574502</v>
+        <v>1.8496764822482199</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6280128489923724</v>
+        <v>2.627913401857024</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10428,11 +10428,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-141162950.34489483</v>
+        <v>-141158562.27492887</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7061444823597895</v>
+        <v>1.7061225317602371</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12204,17 +12204,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6727246625420867E-2</v>
+        <v>7.6724861548276582E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6727246625420867E-2</v>
+        <v>7.6724861548276582E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6727246625420867E-2</v>
+        <v>7.6724861548276582E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12255,17 +12255,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5444987251260192E-2</v>
+        <v>4.5443574587504067E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5444987251260192E-2</v>
+        <v>4.5443574587504067E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5444987251260192E-2</v>
+        <v>4.5443574587504067E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12325,14 +12325,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.2792666932403236</v>
+        <v>7.2789597969372837</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.2792666932403236</v>
+        <v>7.2789597969372837</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12350,14 +12350,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>3.720500875302748</v>
+        <v>3.7203600871196723</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>3.720500875302748</v>
+        <v>3.7203600871196723</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12400,21 +12400,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>103863543.87371054</v>
+        <v>103859164.95218195</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6190820499108023</v>
+        <v>3.6189294682087816</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6190820499108023</v>
+        <v>3.6189294682087816</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1417825293539607</v>
+        <v>5.14156575009366</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12424,14 +12424,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42381746.126529098</v>
+        <v>42380428.684049845</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4767743418893848</v>
+        <v>1.4767284361533524</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12463,27 +12463,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>61481797.747181445</v>
+        <v>61478736.268132105</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.8209615518182045</v>
+        <v>1.8208708772471149</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.1423077080214172</v>
+        <v>2.1422010320554294</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.1423077080214172</v>
+        <v>2.1422010320554294</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.1423077080214172</v>
+        <v>2.1422010320554294</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.6650081874645757</v>
+        <v>3.6648373139403079</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12524,27 +12524,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53085622.793986529</v>
+        <v>53083613.970811605</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5722845070288327</v>
+        <v>1.5722250099109869</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.8497464788574502</v>
+        <v>1.8496764822482199</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.8497464788574502</v>
+        <v>1.8496764822482199</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.8497464788574502</v>
+        <v>1.8496764822482199</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6280128489923724</v>
+        <v>2.627913401857024</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12585,27 +12585,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>57283710.270583987</v>
+        <v>57281175.119471848</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.6966230294235185</v>
+        <v>1.6965479435790509</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.9960270934394337</v>
+        <v>1.9959387571518246</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.9960270934394337</v>
+        <v>1.9959387571518246</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.9960270934394337</v>
+        <v>1.9959387571518246</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.1465105182284741</v>
+        <v>3.1463753578986662</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD7F3D36-238A-4548-B836-4F1AEFF599DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE5F073-56B7-4B25-87BA-EF7403D72025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.5443574587504067E-2</v>
+        <v>4.5442161923747955E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4686,7 +4686,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -5074,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.63182246115257013</v>
+        <v>0.63184210266286323</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.033584940010391</v>
+        <v>13.033990116002851</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.5443574587504067E-2</v>
+        <v>4.5442161923747955E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5319,20 +5319,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.5722250099109869</v>
+        <v>1.5721655135109722</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.0221004121355772</v>
+        <v>3.0219860493097279</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.8496764822482199</v>
+        <v>1.8496064864834967</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.627913401857024</v>
+        <v>2.6278139559215026</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10428,11 +10428,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-141158562.27492887</v>
+        <v>-141154174.20496297</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7061225317602371</v>
+        <v>1.7061005811606851</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12204,17 +12204,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6724861548276582E-2</v>
+        <v>7.6722476471132325E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6724861548276582E-2</v>
+        <v>7.6722476471132325E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6724861548276582E-2</v>
+        <v>7.6722476471132325E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12255,17 +12255,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5443574587504067E-2</v>
+        <v>4.5442161923747955E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5443574587504067E-2</v>
+        <v>4.5442161923747955E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5443574587504067E-2</v>
+        <v>4.5442161923747955E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12325,14 +12325,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.2789597969372837</v>
+        <v>7.2786529063608318</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.2789597969372837</v>
+        <v>7.2786529063608318</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12350,14 +12350,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>3.7203600871196723</v>
+        <v>3.7202193006352013</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>3.7203600871196723</v>
+        <v>3.7202193006352013</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12400,21 +12400,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>103859164.95218195</v>
+        <v>103854786.11236264</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6189294682087816</v>
+        <v>3.6187768893538879</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6189294682087816</v>
+        <v>3.6187768893538879</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.14156575009366</v>
+        <v>5.1413489748783912</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12424,14 +12424,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42380428.684049845</v>
+        <v>42379111.241570592</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4767284361533524</v>
+        <v>1.4766825304173201</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12463,27 +12463,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>61478736.268132105</v>
+        <v>61475674.870792046</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.8208708772471149</v>
+        <v>1.8207802050960826</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.1422010320554294</v>
+        <v>2.1420943589365677</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.1422010320554294</v>
+        <v>2.1420943589365677</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.1422010320554294</v>
+        <v>2.1420943589365677</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.6648373139403079</v>
+        <v>3.664666444461071</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12524,27 +12524,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53083613.970811605</v>
+        <v>53081605.171873078</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5722250099109869</v>
+        <v>1.5721655135109722</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.8496764822482199</v>
+        <v>1.8496064864834967</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.8496764822482199</v>
+        <v>1.8496064864834967</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.8496764822482199</v>
+        <v>1.8496064864834967</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.627913401857024</v>
+        <v>2.6278139559215026</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12585,27 +12585,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>57281175.119471848</v>
+        <v>57278640.021332562</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.6965479435790509</v>
+        <v>1.6964728593035274</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.9959387571518246</v>
+        <v>1.9958504227100322</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.9959387571518246</v>
+        <v>1.9958504227100322</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.9959387571518246</v>
+        <v>1.9958504227100322</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.1463753578986662</v>
+        <v>3.1462402001912868</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE5F073-56B7-4B25-87BA-EF7403D72025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E7C17A6-C535-4409-9867-BB6D34A92246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.5442161923747955E-2</v>
+        <v>4.5440749259991843E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5074,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5123,7 +5123,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5170,7 +5170,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.63184210266286323</v>
+        <v>0.63186174539438844</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.033990116002851</v>
+        <v>13.034395317187565</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.5442161923747955E-2</v>
+        <v>4.5440749259991843E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5319,20 +5319,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.5721655135109722</v>
+        <v>1.6404584533865587</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.0219860493097279</v>
+        <v>3.1977523457278849</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.8496064864834967</v>
+        <v>1.9299511216312457</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6278139559215026</v>
+        <v>2.7806542136764221</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10428,11 +10428,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-141154174.20496297</v>
+        <v>-141149786.13499707</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7061005811606851</v>
+        <v>1.7060786305611328</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12204,17 +12204,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6722476471132325E-2</v>
+        <v>7.6720091393988069E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6722476471132325E-2</v>
+        <v>7.6720091393988069E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6722476471132325E-2</v>
+        <v>7.6720091393988069E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12255,17 +12255,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5442161923747955E-2</v>
+        <v>4.5440749259991843E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5442161923747955E-2</v>
+        <v>4.5440749259991843E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5442161923747955E-2</v>
+        <v>4.5440749259991843E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12314,7 +12314,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12325,14 +12325,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.2786529063608318</v>
+        <v>7.5947958485331046</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.2786529063608318</v>
+        <v>7.5947958485331046</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12350,14 +12350,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>3.7202193006352013</v>
+        <v>3.8818210600166916</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>3.7202193006352013</v>
+        <v>3.8818210600166916</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12400,21 +12400,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>103854786.11236264</v>
+        <v>108365642.45661029</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6187768893538879</v>
+        <v>3.7759558052306943</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6187768893538879</v>
+        <v>3.7759558052306943</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1413489748783912</v>
+        <v>5.4403592416351536</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12424,14 +12424,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42379111.241570592</v>
+        <v>42377793.799091339</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4766825304173201</v>
+        <v>1.4766366246812876</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12463,27 +12463,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>61475674.870792046</v>
+        <v>65987848.657518953</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.8207802050960826</v>
+        <v>1.9544213034669955</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.1420943589365677</v>
+        <v>2.2993191805494066</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.1420943589365677</v>
+        <v>2.2993191805494066</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.1420943589365677</v>
+        <v>2.2993191805494066</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.664666444461071</v>
+        <v>3.963722616953866</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12524,27 +12524,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53081605.171873078</v>
+        <v>55387404.936178274</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5721655135109722</v>
+        <v>1.6404584533865587</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.8496064864834967</v>
+        <v>1.9299511216312457</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.8496064864834967</v>
+        <v>1.9299511216312457</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.8496064864834967</v>
+        <v>1.9299511216312457</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6278139559215026</v>
+        <v>2.7806542136764221</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12585,27 +12585,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>57278640.021332562</v>
+        <v>60687626.796848617</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.6964728593035274</v>
+        <v>1.7974398784267771</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.9958504227100322</v>
+        <v>2.1146351510903263</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.9958504227100322</v>
+        <v>2.1146351510903263</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.9958504227100322</v>
+        <v>2.1146351510903263</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.1462402001912868</v>
+        <v>3.372188415315144</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E7C17A6-C535-4409-9867-BB6D34A92246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C149E89A-ECD6-4907-BFD9-6BAFAD183734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -983,6 +983,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1522,7 +1523,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1822,9 +1823,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2159,6 +2157,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3600,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3604,7 +3608,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3612,7 +3616,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45593</v>
       </c>
     </row>
@@ -3620,7 +3624,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3628,16 +3632,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3645,7 +3649,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>28698864088</v>
       </c>
     </row>
@@ -3653,101 +3657,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>266</v>
       </c>
       <c r="D22" s="24"/>
@@ -3805,421 +3809,421 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>234261514</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>222938637</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>183809908</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>177260463</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>37506984</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>599182</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>0</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>0</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>2199</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>645</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151">
+      <c r="C31" s="150">
         <v>-169280</v>
       </c>
-      <c r="D31" s="151">
+      <c r="D31" s="150">
         <v>-50846</v>
       </c>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151">
+      <c r="C32" s="150">
         <v>35974</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="150">
         <v>32106</v>
       </c>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151">
+      <c r="C33" s="150">
         <v>15312</v>
       </c>
-      <c r="D33" s="151">
+      <c r="D33" s="150">
         <v>11600</v>
       </c>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151">
+      <c r="C34" s="217"/>
+      <c r="D34" s="150">
         <v>3160304</v>
       </c>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151">
+      <c r="C35" s="217"/>
+      <c r="D35" s="150">
         <v>131280367</v>
       </c>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151">
+      <c r="C36" s="217"/>
+      <c r="D36" s="150">
         <v>66848740</v>
       </c>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151">
+      <c r="C37" s="217"/>
+      <c r="D37" s="150">
         <v>734909</v>
       </c>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151">
+      <c r="C38" s="217"/>
+      <c r="D38" s="150">
         <v>18682</v>
       </c>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151">
+      <c r="C39" s="217"/>
+      <c r="D39" s="150">
         <v>6202</v>
       </c>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151">
+      <c r="C40" s="217"/>
+      <c r="D40" s="150">
         <v>10412</v>
       </c>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151">
+      <c r="C41" s="217"/>
+      <c r="D41" s="150">
         <v>2824568</v>
       </c>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151">
+      <c r="C42" s="217"/>
+      <c r="D42" s="150">
         <v>7297</v>
       </c>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151">
+      <c r="C43" s="217"/>
+      <c r="D43" s="150">
         <v>2868641</v>
       </c>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <v>0.2</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.5440749259991843E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>4.5592228571573898E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4228,10 +4232,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4348,7 +4352,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4362,7 +4366,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4386,7 +4390,7 @@
       <c r="C59" s="120">
         <v>11709109</v>
       </c>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4466,7 +4470,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4480,7 +4484,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4495,7 +4499,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4551,16 +4555,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248">
+      <c r="C72" s="247">
         <v>37623092</v>
       </c>
-      <c r="D72" s="249">
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4662,7 +4666,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4670,19 +4674,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>267</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4696,14 +4701,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4715,12 +4720,12 @@
         <f>C25</f>
         <v>234261514</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>234261514</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>234261514</v>
       </c>
@@ -4733,15 +4738,15 @@
         <f>C26</f>
         <v>183809908</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.78463553343209413</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>183809908</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>183809908</v>
       </c>
@@ -4754,15 +4759,15 @@
         <f>C27+C28</f>
         <v>37506984</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.16010732347610457</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>37506984</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>37506984</v>
       </c>
@@ -4775,12 +4780,12 @@
         <f>C29</f>
         <v>0</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>0</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>0</v>
       </c>
@@ -4793,15 +4798,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>20662</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>8.8200573996119572E-5</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>20662</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>20662</v>
       </c>
@@ -4814,12 +4819,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4832,12 +4837,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>2932</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>1.2515926965280349E-5</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>2932</v>
       </c>
@@ -4846,16 +4851,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.2</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.2</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.2</v>
       </c>
@@ -4974,17 +4979,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>1766.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.72</v>
+        <v>4.7</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4994,40 +4999,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>中国中车</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>28698864088</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>135458.63849535998</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>134884.66121360002</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5035,11 +5040,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -5050,22 +5055,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0004</v>
       </c>
@@ -5074,7 +5079,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5094,7 +5099,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5105,7 +5110,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5119,11 +5124,11 @@
       <c r="B12" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5132,7 +5137,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5143,7 +5148,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5154,10 +5159,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5169,10 +5174,10 @@
       <c r="B17" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,14 +5199,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.78463553343209413</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5209,7 +5214,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.16010732347610457</v>
       </c>
@@ -5220,7 +5225,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.2515926965280349E-5</v>
       </c>
@@ -5232,46 +5237,46 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.63186174539438844</v>
+        <v>0.62976239677278911</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.034395317187565</v>
+        <v>12.991088786855618</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>8.8200573996119572E-5</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.59229268936393198</v>
       </c>
@@ -5280,16 +5285,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>5.5156426590839844E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.5440749259991843E-2</v>
+        <v>4.5592228571573898E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5308,10 +5313,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>257</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5319,22 +5324,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.6404584533865587</v>
+        <v>1.5718012869607947</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.1977523457278849</v>
+        <v>3.0212859401011452</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9299511216312457</v>
-      </c>
-      <c r="G29" s="273">
+        <v>1.8491779846597585</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.7806542136764221</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>2.6272051653053436</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5346,17 +5351,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5366,7 +5371,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -5374,17 +5379,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5394,24 +5399,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5421,7 +5426,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5440,10 +5445,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6425,16 +6430,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6448,11 +6453,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6485,7 +6490,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6549,47 +6554,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>234261514</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>222938637</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6651,47 +6656,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>183809908</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>177260463</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6702,47 +6707,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>50451606</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>45678174</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6753,47 +6758,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>37506984</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>599182</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6804,47 +6809,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6855,47 +6860,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2932</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>860</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6903,50 +6908,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>5.5244627164835962E-2</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.20219972906715133</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6954,50 +6959,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>12941690</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>45078132</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7005,50 +7010,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.71290536173947938</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7059,47 +7064,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-169280</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-50846</v>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7110,47 +7115,47 @@
       <c r="B17" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7161,47 +7166,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>1.5356342314085786E-4</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
         <v>1.4401272220929565E-4</v>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7212,47 +7217,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>35974</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>32106</v>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7263,47 +7268,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>6.5362849144738304E-5</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>5.2032254956326836E-5</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7314,47 +7319,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>15312</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>11600</v>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7365,47 +7370,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>12921028</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>45057626</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7416,47 +7421,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>4.1367319943129879E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>0.15158081144992377</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7467,7 +7472,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>9690771</v>
       </c>
@@ -7515,50 +7520,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.71323327154431082</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7675,43 +7680,43 @@
         <f>Fin_Analysis!C28</f>
         <v>319587946</v>
       </c>
-      <c r="D28" s="200">
+      <c r="D28" s="199">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v>3160304</v>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7726,43 +7731,43 @@
         <f>Fin_Analysis!C13</f>
         <v>121633388</v>
       </c>
-      <c r="D29" s="200">
+      <c r="D29" s="199">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>131280367</v>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7777,43 +7782,43 @@
         <f>Fin_Analysis!C18</f>
         <v>86201047</v>
       </c>
-      <c r="D30" s="200">
+      <c r="D30" s="199">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>66848740</v>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7828,43 +7833,43 @@
         <f>Fin_Analysis!I28</f>
         <v>255569971</v>
       </c>
-      <c r="D31" s="200">
+      <c r="D31" s="199">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>734909</v>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7879,43 +7884,43 @@
         <f>Fin_Analysis!I48</f>
         <v>24023311</v>
       </c>
-      <c r="D32" s="200">
+      <c r="D32" s="199">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v>18682</v>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7930,43 +7935,43 @@
         <f>Fin_Analysis!I15</f>
         <v>12993125</v>
       </c>
-      <c r="D33" s="200">
+      <c r="D33" s="199">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>6202</v>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7981,43 +7986,43 @@
         <f>Fin_Analysis!I34</f>
         <v>8009951</v>
       </c>
-      <c r="D34" s="200">
+      <c r="D34" s="199">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>10412</v>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8083,43 +8088,43 @@
         <f>Fin_Analysis!D3</f>
         <v>199906611</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="199">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>2824568</v>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8134,43 +8139,43 @@
         <f>Fin_Analysis!D4</f>
         <v>39516717</v>
       </c>
-      <c r="D37" s="200">
+      <c r="D37" s="199">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>7297</v>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8185,43 +8190,43 @@
         <f>Fin_Analysis!C63</f>
         <v>81640747</v>
       </c>
-      <c r="D38" s="200">
+      <c r="D38" s="199">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>2868641</v>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8283,47 +8288,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>3.2528320965128699E-2</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>63.533457924957503</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8352,47 +8357,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.78463553343209413</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.79510875900797762</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8403,47 +8408,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.16010732347610457</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>2.6876543611415371E-3</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8454,47 +8459,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8505,47 +8510,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8556,47 +8561,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.2515926965280349E-5</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>3.8575637295207831E-6</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8607,47 +8612,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>8.8200573996119572E-5</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>9.1980467252968803E-5</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8658,47 +8663,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>5.5156426590839844E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.20210774859989836</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8727,47 +8732,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0.51922053231500931</v>
       </c>
-      <c r="D50" s="157">
+      <c r="D50" s="156">
         <f t="shared" si="41"/>
         <v>0.58886323504346172</v>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8778,47 +8783,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0.36796930715644566</v>
       </c>
-      <c r="D51" s="154">
+      <c r="D51" s="153">
         <f t="shared" si="42"/>
         <v>0.29985264510251758</v>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8846,47 +8851,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.58309352323463393</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.21060858391144721</v>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8896,47 +8901,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>0.61519693591548208</v>
       </c>
-      <c r="D54" s="158">
+      <c r="D54" s="157">
         <f t="shared" si="44"/>
         <v>2712.0275671120739</v>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8946,47 +8951,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154" t="str">
+      <c r="C55" s="153" t="str">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-</v>
       </c>
-      <c r="D55" s="154" t="str">
+      <c r="D55" s="153" t="str">
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8996,47 +9001,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>1.250490989804119</v>
       </c>
-      <c r="D56" s="159">
+      <c r="D56" s="158">
         <f t="shared" si="46"/>
         <v>4.3002657471877468</v>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10334,8 +10339,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10384,7 +10389,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>160389894</v>
       </c>
@@ -10428,11 +10433,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-141149786.13499707</v>
+        <v>-141020230.85355991</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7060786305611328</v>
+        <v>1.7054305515366868</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10481,7 +10486,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10528,7 +10533,7 @@
         <f>Inputs!C48</f>
         <v>47742240</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10556,7 +10561,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10584,7 +10589,7 @@
         <f>Inputs!C50</f>
         <v>121633388</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10612,7 +10617,7 @@
         <f>Inputs!C51</f>
         <v>7768559</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10625,7 +10630,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>9668</v>
       </c>
@@ -10640,7 +10645,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10667,7 +10672,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10689,7 +10694,7 @@
         <f>Inputs!C54</f>
         <v>44533603</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10711,7 +10716,7 @@
         <f>Inputs!C55</f>
         <v>86201047</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10732,7 +10737,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10757,7 +10762,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10784,7 +10789,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10805,7 +10810,7 @@
         <f>Inputs!C59</f>
         <v>11709109</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10970,7 +10975,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>255569971</v>
       </c>
@@ -10999,7 +11004,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -11025,7 +11030,7 @@
         <f>Inputs!C61</f>
         <v>2881955</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -11052,7 +11057,7 @@
         <f>Inputs!C62</f>
         <v>821946</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11079,7 +11084,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11095,7 +11100,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11109,7 +11114,7 @@
         <f>Inputs!C64</f>
         <v>7301425</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11136,7 +11141,7 @@
         <f>Inputs!C65</f>
         <v>21620835</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11162,7 +11167,7 @@
         <f>Inputs!C66</f>
         <v>805212</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11189,7 +11194,7 @@
         <f>Inputs!C67</f>
         <v>6765810</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11216,7 +11221,7 @@
         <f>Inputs!C68</f>
         <v>60750263</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11237,7 +11242,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11258,7 +11263,7 @@
         <f>Inputs!C70</f>
         <v>17178235</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11279,7 +11284,7 @@
         <f>Inputs!C71</f>
         <v>4163174</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11300,7 +11305,7 @@
         <f>Inputs!C72</f>
         <v>37623092</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11446,7 +11451,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>24023311</v>
       </c>
@@ -11555,11 +11560,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>21003076</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11570,11 +11575,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11586,11 +11591,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11686,8 +11691,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>21003076</v>
@@ -11767,8 +11772,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>258590206</v>
@@ -11804,19 +11809,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11826,18 +11831,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11848,17 +11853,17 @@
         <f>Data!C6</f>
         <v>234261514</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>234261514</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>234261514</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11869,23 +11874,23 @@
         <f>Data!C8</f>
         <v>183809908</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.78463553343209413</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>183809908</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.78463553343209413</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>183809908</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.78463553343209413</v>
       </c>
@@ -11895,21 +11900,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>50451606</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>50451606</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>50451606</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11920,23 +11925,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>37506984</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.16010732347610457</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>37506984</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.16010732347610457</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>37506984</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.16010732347610457</v>
       </c>
@@ -11950,54 +11955,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>2932</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>1.2515926965280349E-5</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>2932</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>1.2515926965280349E-5</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>2932</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>1.2515926965280349E-5</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>12941690</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>5.5244627164835962E-2</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>12941690</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>5.5244627164835962E-2</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>12941690</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>5.5244627164835962E-2</v>
       </c>
@@ -12011,27 +12016,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12043,23 +12048,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>0</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>0</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>0</v>
       </c>
@@ -12073,23 +12078,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>20662</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>8.8200573996119572E-5</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>20662</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>8.8200573996119572E-5</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>20662</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>8.8200573996119572E-5</v>
       </c>
@@ -12099,27 +12104,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>12921028</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>5.5156426590839844E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>12921028</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>5.5156426590839844E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>12921028</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>5.5156426590839844E-2</v>
       </c>
@@ -12129,49 +12134,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>9690771</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>4.1367319943129879E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>9690771</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>4.1367319943129879E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>9690771</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>4.1367319943129879E-2</v>
       </c>
@@ -12181,69 +12186,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.33767089074623169</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.33767089074623169</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.33767089074623169</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6720091393988069E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>7.6975842164345748E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6720091393988069E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>7.6975842164345748E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6720091393988069E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>7.6975842164345748E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.2</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.59229268936393198</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.2</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.59229268936393198</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.2</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.59229268936393198</v>
       </c>
@@ -12253,21 +12258,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5440749259991843E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>4.5592228571573898E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5440749259991843E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>4.5592228571573898E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5440749259991843E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>4.5592228571573898E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12289,22 +12294,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12314,9 +12319,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12324,15 +12329,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.5947958485331046</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>7.2803057535938649</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.5947958485331046</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>7.2803057535938649</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12340,24 +12345,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>3.8818210600166916</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>3.7193574304121686</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>3.8818210600166916</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>3.7193574304121686</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12378,14 +12386,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12400,21 +12408,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>108365642.45661029</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>103878369.61030813</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7759558052306943</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>3.6195986465451537</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.7759558052306943</v>
+        <v>3.6195986465451537</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.4403592416351536</v>
+        <v>5.1425164799835956</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12424,16 +12432,16 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42377793.799091339</v>
-      </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+        <v>42338897.055761695</v>
+      </c>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4766366246812876</v>
-      </c>
-      <c r="I98" s="216"/>
+        <v>1.4752812838144724</v>
+      </c>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12444,17 +12452,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12463,27 +12471,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>65987848.657518953</v>
+        <v>61539472.554546431</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9544213034669955</v>
+        <v>1.8226697583210791</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.2993191805494066</v>
+        <v>2.1443173627306811</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.2993191805494066</v>
+        <v>2.1443173627306815</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.2993191805494066</v>
+        <v>2.144317362730682</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.963722616953866</v>
+        <v>3.6672351961691234</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12502,14 +12510,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12524,27 +12532,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>55387404.936178274</v>
+        <v>53069307.656272158</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.6404584533865587</v>
+        <v>1.5718012869607947</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.9299511216312457</v>
+        <v>1.8491779846597585</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.9299511216312457</v>
+        <v>1.8491779846597585</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.9299511216312457</v>
+        <v>1.8491779846597585</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.7806542136764221</v>
+        <v>2.6272051653053436</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12563,14 +12571,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12585,27 +12593,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>60687626.796848617</v>
+        <v>57304390.105409279</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.7974398784267771</v>
+        <v>1.6972355226409368</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.1146351510903263</v>
+        <v>1.9967476736952197</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.1146351510903263</v>
+        <v>1.9967476736952201</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.1146351510903263</v>
+        <v>1.9967476736952201</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.372188415315144</v>
+        <v>3.1472201807372335</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C149E89A-ECD6-4907-BFD9-6BAFAD183734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14EC87F2-E6D6-4E62-9FEA-04B8E87A89FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3580,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.5592228571573898E-2</v>
+        <v>4.539931993153782E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4677,7 +4677,9 @@
       <c r="C87" s="236" t="s">
         <v>267</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4989,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.7</v>
+        <v>4.71</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5030,7 +5032,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>134884.66121360002</v>
+        <v>135171.64985448</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5079,7 +5081,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5125,10 +5127,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5175,7 +5177,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5246,7 +5248,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62976239677278911</v>
+        <v>0.63243835332214937</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5262,7 +5264,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.991088786855618</v>
+        <v>13.046289906040649</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5294,7 +5296,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.5592228571573898E-2</v>
+        <v>4.539931993153782E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5324,20 +5326,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.5718012869607947</v>
+        <v>1.5670344642400353</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.0212859401011452</v>
+        <v>2.7462082829175682</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.8491779846597585</v>
+        <v>1.8435699579294533</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6272051653053436</v>
+        <v>2.388007202537016</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10433,11 +10435,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-141020230.85355991</v>
+        <v>-140722323.26683909</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7054305515366868</v>
+        <v>1.7039403177458654</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12209,17 +12211,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6975842164345748E-2</v>
+        <v>7.6650144002777629E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6975842164345748E-2</v>
+        <v>7.6650144002777629E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6975842164345748E-2</v>
+        <v>7.6650144002777629E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12260,17 +12262,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5592228571573898E-2</v>
+        <v>4.539931993153782E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5592228571573898E-2</v>
+        <v>4.539931993153782E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5592228571573898E-2</v>
+        <v>4.539931993153782E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12319,7 +12321,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12330,14 +12332,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2803057535938649</v>
+        <v>7.2539473635666587</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2803057535938649</v>
+        <v>7.2539473635666587</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12351,21 +12353,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.7193574304121686</v>
+        <v>3.7080776855404776</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.7193574304121686</v>
+        <v>3.7080776855404776</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12408,21 +12410,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>103878369.61030813</v>
+        <v>103502277.35893157</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6195986465451537</v>
+        <v>3.6064938682437084</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6195986465451537</v>
+        <v>3.6064938682437084</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1425164799835956</v>
+        <v>4.6715522219423811</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12432,14 +12434,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42338897.055761695</v>
+        <v>42249455.430471778</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4752812838144724</v>
+        <v>1.4721647275279357</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12471,27 +12473,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>61539472.554546431</v>
+        <v>61252821.928459793</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.8226697583210791</v>
+        <v>1.8141797696084065</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.1443173627306811</v>
+        <v>2.1343291407157725</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.1443173627306815</v>
+        <v>2.1343291407157725</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.144317362730682</v>
+        <v>2.134329140715773</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.6672351961691234</v>
+        <v>3.1993874944144451</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12532,27 +12534,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>53069307.656272158</v>
+        <v>52908363.65933726</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5718012869607947</v>
+        <v>1.5670344642400353</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.8491779846597585</v>
+        <v>1.8435699579294533</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.8491779846597585</v>
+        <v>1.8435699579294533</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.8491779846597585</v>
+        <v>1.8435699579294533</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6272051653053436</v>
+        <v>2.388007202537016</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12593,27 +12595,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>57304390.105409279</v>
+        <v>57080592.793898523</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.6972355226409368</v>
+        <v>1.6906071169242209</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.9967476736952197</v>
+        <v>1.988949549322613</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.9967476736952201</v>
+        <v>1.988949549322613</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.9967476736952201</v>
+        <v>1.988949549322613</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.1472201807372335</v>
+        <v>2.7936973484757308</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14EC87F2-E6D6-4E62-9FEA-04B8E87A89FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8326812D-2C2A-416F-B2BC-21205C8FE3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.539931993153782E-2</v>
+        <v>4.4795048619247706E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.71</v>
+        <v>4.78</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>135171.64985448</v>
+        <v>137180.57034064003</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5081,7 +5081,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.63243835332214937</v>
+        <v>0.6409697505520735</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.046289906040649</v>
+        <v>13.222280310450055</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.539931993153782E-2</v>
+        <v>4.4795048619247706E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5326,20 +5326,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.5670344642400353</v>
+        <v>1.5646264412719617</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.7462082829175682</v>
+        <v>2.7419882528089214</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.8435699579294533</v>
+        <v>1.8407369897317196</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.388007202537016</v>
+        <v>2.3843376111381929</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10435,11 +10435,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-140722323.26683909</v>
+        <v>-140912866.96767145</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7039403177458654</v>
+        <v>1.7048934813249945</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12211,17 +12211,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6650144002777629E-2</v>
+        <v>7.5629919841410653E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6650144002777629E-2</v>
+        <v>7.5629919841410653E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6650144002777629E-2</v>
+        <v>7.5629919841410653E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12262,17 +12262,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.539931993153782E-2</v>
+        <v>4.4795048619247706E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.539931993153782E-2</v>
+        <v>4.4795048619247706E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.539931993153782E-2</v>
+        <v>4.4795048619247706E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12332,14 +12332,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2539473635666587</v>
+        <v>7.2294192436353129</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2539473635666587</v>
+        <v>7.2294192436353129</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12360,14 +12360,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.7080776855404776</v>
+        <v>3.7023795745940067</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.7080776855404776</v>
+        <v>3.7023795745940067</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12410,21 +12410,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>103502277.35893157</v>
+        <v>103152300.14721674</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6064938682437084</v>
+        <v>3.5942990576532372</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6064938682437084</v>
+        <v>3.5942990576532372</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.6715522219423811</v>
+        <v>4.655756078488011</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12434,14 +12434,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42249455.430471778</v>
+        <v>42306662.896984458</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4721647275279357</v>
+        <v>1.4741580979392963</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12473,27 +12473,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>61252821.928459793</v>
+        <v>60845637.250232279</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.8141797696084065</v>
+        <v>1.8021198157568497</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.1343291407157725</v>
+        <v>2.1201409597139409</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.1343291407157725</v>
+        <v>2.1201409597139409</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.134329140715773</v>
+        <v>2.1201409597139409</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.1993874944144451</v>
+        <v>3.1815979805487147</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12534,27 +12534,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>52908363.65933726</v>
+        <v>52827060.69006487</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5670344642400353</v>
+        <v>1.5646264412719617</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.8435699579294533</v>
+        <v>1.8407369897317196</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.8435699579294533</v>
+        <v>1.8407369897317196</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.8435699579294533</v>
+        <v>1.8407369897317196</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.388007202537016</v>
+        <v>2.3843376111381929</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12595,27 +12595,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>57080592.793898523</v>
+        <v>56836348.970148578</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.6906071169242209</v>
+        <v>1.6833731285144058</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.988949549322613</v>
+        <v>1.9804389747228304</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.988949549322613</v>
+        <v>1.9804389747228304</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.988949549322613</v>
+        <v>1.9804389747228304</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.7936973484757308</v>
+        <v>2.7829677958434536</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8326812D-2C2A-416F-B2BC-21205C8FE3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC051858-695D-43B5-A6BA-E4ACE3E1327C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -935,6 +935,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>1766.HK</t>
   </si>
   <si>
@@ -945,9 +956,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>Strongly agree</t>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3690,7 +3698,7 @@
         <v>255</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3715,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4185,7 +4193,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.4795048619247706E-2</v>
+        <v>4.4910242972383968E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4318,7 +4326,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="C54" s="59">
         <v>44533603</v>
@@ -4450,7 +4458,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="C64" s="59">
         <v>7301425</v>
@@ -4675,7 +4683,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4991,10 +4999,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.78</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5032,7 +5040,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>137180.57034064003</v>
+        <v>136893.58169975999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5081,7 +5089,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5127,10 +5135,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5177,7 +5185,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5248,7 +5256,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.6409697505520735</v>
+        <v>0.63932566913750277</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5264,7 +5272,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.222280310450055</v>
+        <v>13.188365285134223</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5296,7 +5304,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4795048619247706E-2</v>
+        <v>4.4910242972383968E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5326,20 +5334,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.5646264412719617</v>
+        <v>1.8639448799028748</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.7419882528089214</v>
+        <v>3.4441124736391764</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.8407369897317196</v>
+        <v>2.1928763292975</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.3843376111381929</v>
+        <v>2.9948804118601537</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10435,11 +10443,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-140912866.96767145</v>
+        <v>-140979681.73979855</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7048934813249945</v>
+        <v>1.7052277112526237</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12211,17 +12219,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5629919841410653E-2</v>
+        <v>7.5824408740572932E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5629919841410653E-2</v>
+        <v>7.5824408740572932E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5629919841410653E-2</v>
+        <v>7.5824408740572932E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12262,17 +12270,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4795048619247706E-2</v>
+        <v>4.4910242972383968E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4795048619247706E-2</v>
+        <v>4.4910242972383968E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4795048619247706E-2</v>
+        <v>4.4910242972383968E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12321,7 +12329,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12332,14 +12340,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2294192436353129</v>
+        <v>8.6154705929560702</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2294192436353129</v>
+        <v>8.6154705929560702</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12360,14 +12368,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.7023795745940067</v>
+        <v>4.4106575662311416</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.7023795745940067</v>
+        <v>4.4106575662311416</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12410,21 +12418,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>103152300.14721674</v>
+        <v>122929045.69015397</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5942990576532372</v>
+        <v>4.2834115424643207</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5942990576532372</v>
+        <v>4.2834115424643207</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.655756078488011</v>
+        <v>5.8499903314528003</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12434,14 +12442,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42306662.896984458</v>
+        <v>42326722.882291317</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4741580979392963</v>
+        <v>1.474857079796047</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12473,27 +12481,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>60845637.250232279</v>
+        <v>80602322.807862654</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.8021198157568497</v>
+        <v>2.3872712932680322</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.1201409597139409</v>
+        <v>2.8085544626682735</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.1201409597139409</v>
+        <v>2.8085544626682735</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.1201409597139409</v>
+        <v>2.8085544626682735</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.1815979805487147</v>
+        <v>4.3751332516567532</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12534,27 +12542,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>52827060.69006487</v>
+        <v>62933059.736301288</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5646264412719617</v>
+        <v>1.8639448799028748</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.8407369897317196</v>
+        <v>2.1928763292975</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.8407369897317196</v>
+        <v>2.1928763292975</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.8407369897317196</v>
+        <v>2.1928763292975</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.3843376111381929</v>
+        <v>2.9948804118601537</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12595,27 +12603,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>56836348.970148578</v>
+        <v>71767691.272081971</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.6833731285144058</v>
+        <v>2.1256080865854536</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.9804389747228304</v>
+        <v>2.5007153959828869</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.9804389747228304</v>
+        <v>2.5007153959828869</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.9804389747228304</v>
+        <v>2.5007153959828869</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.7829677958434536</v>
+        <v>3.6850068317584537</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC051858-695D-43B5-A6BA-E4ACE3E1327C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F469EC0-3338-4170-ACA1-2950E6529D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -943,6 +943,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3715,7 +3719,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4193,7 +4197,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.4910242972383968E-2</v>
+        <v>4.5160729170851566E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4683,7 +4687,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4999,10 +5003,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.7699999999999996</v>
+        <v>4.74</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5040,7 +5044,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>136893.58169975999</v>
+        <v>136032.61577712002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5089,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5110,7 +5114,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5121,7 +5125,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5148,7 +5152,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5256,7 +5260,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.63932566913750277</v>
+        <v>0.63577961796903826</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5272,7 +5276,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.188365285134223</v>
+        <v>13.115215370486533</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5304,7 +5308,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4910242972383968E-2</v>
+        <v>4.5160729170851566E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5334,20 +5338,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.8639448799028748</v>
+        <v>1.8647862250314604</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.4441124736391764</v>
+        <v>3.4456670728568035</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.1928763292975</v>
+        <v>2.1938661470958358</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.9948804118601537</v>
+        <v>2.9962322372667858</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5382,8 +5386,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
@@ -6409,12 +6413,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8840,118 +8844,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>-1.4950263965598143E-2</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.58309352323463393</v>
       </c>
-      <c r="D53" s="156">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
+      <c r="D54" s="156">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.21060858391144721</v>
       </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.61519693591548208</v>
-      </c>
-      <c r="D54" s="157">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>2712.0275671120739</v>
-      </c>
-      <c r="E54" s="157" t="str">
+        <v/>
+      </c>
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8959,107 +8964,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="153" t="str">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.61519693591548208</v>
+      </c>
+      <c r="D55" s="157">
         <f t="shared" si="45"/>
-        <v>-</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v>2712.0275671120739</v>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v>-</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>1.250490989804119</v>
       </c>
-      <c r="D56" s="158">
-        <f t="shared" si="46"/>
+      <c r="D57" s="158">
+        <f t="shared" si="47"/>
         <v>4.3002657471877468</v>
       </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9627,7 +9679,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10310,6 +10364,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10443,11 +10498,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-140979681.73979855</v>
+        <v>-140874383.75097394</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7052277112526237</v>
+        <v>1.7047009753518054</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12219,17 +12274,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5824408740572932E-2</v>
+        <v>7.6247318229353878E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5824408740572932E-2</v>
+        <v>7.6247318229353878E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5824408740572932E-2</v>
+        <v>7.6247318229353878E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12270,17 +12325,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4910242972383968E-2</v>
+        <v>4.5160729170851566E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4910242972383968E-2</v>
+        <v>4.5160729170851566E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4910242972383968E-2</v>
+        <v>4.5160729170851566E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12340,14 +12395,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6154705929560702</v>
+        <v>8.625970166769104</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6154705929560702</v>
+        <v>8.625970166769104</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12368,14 +12423,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4106575662311416</v>
+        <v>4.41264844337414</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4106575662311416</v>
+        <v>4.41264844337414</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12418,21 +12473,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>122929045.69015397</v>
+        <v>123078857.8884621</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.2834115424643207</v>
+        <v>4.2886316862947087</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.2834115424643207</v>
+        <v>4.2886316862947087</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.8499903314528003</v>
+        <v>5.8571196466338931</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12442,14 +12497,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>42326722.882291317</v>
+        <v>42295108.973549008</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.474857079796047</v>
+        <v>1.473755506275737</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12481,27 +12536,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>80602322.807862654</v>
+        <v>80783748.914913088</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.3872712932680322</v>
+        <v>2.3926447530161257</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.8085544626682735</v>
+        <v>2.8148761800189717</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.8085544626682735</v>
+        <v>2.8148761800189717</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.8085544626682735</v>
+        <v>2.8148761800189717</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.3751332516567532</v>
+        <v>4.3833641403581556</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12542,27 +12597,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>62933059.736301288</v>
+        <v>62961466.38276761</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.8639448799028748</v>
+        <v>1.8647862250314604</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.1928763292975</v>
+        <v>2.1938661470958358</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.1928763292975</v>
+        <v>2.1938661470958358</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.1928763292975</v>
+        <v>2.1938661470958358</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.9948804118601537</v>
+        <v>2.9962322372667858</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12603,27 +12658,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>71767691.272081971</v>
+        <v>71872607.648840368</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1256080865854536</v>
+        <v>2.1287154890237932</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.5007153959828869</v>
+        <v>2.504371163557404</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.5007153959828869</v>
+        <v>2.504371163557404</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.5007153959828869</v>
+        <v>2.504371163557404</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.6850068317584537</v>
+        <v>3.6897981888124707</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F469EC0-3338-4170-ACA1-2950E6529D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C0B86E-72DC-4A0B-9741-A38A68779625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.5160729170851566E-2</v>
+        <v>4.5143852086342168E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5093,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.63577961796903826</v>
+        <v>0.63601730495953468</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.115215370486533</v>
+        <v>13.120118509849636</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.5160729170851566E-2</v>
+        <v>4.5143852086342168E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5338,20 +5338,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.8647862250314604</v>
+        <v>1.8639388327587454</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.4456670728568035</v>
+        <v>3.4441013000016127</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.1938661470958358</v>
+        <v>2.1928692150102886</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.9962322372667858</v>
+        <v>2.9948706956535767</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10404,8 +10404,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10498,11 +10498,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-140874383.75097394</v>
+        <v>-140821737.37162119</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7047009753518054</v>
+        <v>1.7044376204828025</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12274,17 +12274,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6247318229353878E-2</v>
+        <v>7.6218823728556442E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6247318229353878E-2</v>
+        <v>7.6218823728556442E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6247318229353878E-2</v>
+        <v>7.6218823728556442E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12325,17 +12325,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5160729170851566E-2</v>
+        <v>4.5143852086342168E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5160729170851566E-2</v>
+        <v>4.5143852086342168E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5160729170851566E-2</v>
+        <v>4.5143852086342168E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12395,14 +12395,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.625970166769104</v>
+        <v>8.6216051325861862</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.625970166769104</v>
+        <v>8.6216051325861862</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12423,14 +12423,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.41264844337414</v>
+        <v>4.4106432568584255</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.41264844337414</v>
+        <v>4.4106432568584255</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12473,21 +12473,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>123078857.8884621</v>
+        <v>123016575.80175288</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.2886316862947087</v>
+        <v>4.2864614928501794</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.2886316862947087</v>
+        <v>4.2864614928501794</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.8571196466338931</v>
+        <v>5.8541557449536521</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12496,15 +12496,15 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>42295108.973549008</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-42279302.804304481</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.473755506275737</v>
+        <v>-1.4732047468729934</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12535,28 +12535,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>80783748.914913088</v>
+        <f>C97+C98+$C$99</f>
+        <v>80737272.9974484</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.3926447530161257</v>
+        <v>2.391268234080608</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>2.8148761800189717</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>2.8132567459771858</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.8148761800189717</v>
+        <v>2.8132567459771858</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.8148761800189717</v>
+        <v>2.8132567459771858</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>4.3833641403581556</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>4.3809509980806585</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12597,27 +12597,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>62961466.38276761</v>
+        <v>62932855.564339526</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.8647862250314604</v>
+        <v>1.8639388327587454</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.1938661470958358</v>
+        <v>2.1928692150102886</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.1938661470958358</v>
+        <v>2.1928692150102886</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.1938661470958358</v>
+        <v>2.1928692150102886</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.9962322372667858</v>
+        <v>2.9948706956535767</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12658,27 +12658,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>71872607.648840368</v>
+        <v>71835064.280893967</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1287154890237932</v>
+        <v>2.1276035334196766</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.504371163557404</v>
+        <v>2.5030629804937372</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.504371163557404</v>
+        <v>2.5030629804937372</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.504371163557404</v>
+        <v>2.5030629804937372</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.6897981888124707</v>
+        <v>3.6879108468671173</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C0B86E-72DC-4A0B-9741-A38A68779625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C340F1EA-BD15-4A1F-9586-DCA3AC76CB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.5143852086342168E-2</v>
+        <v>4.5737636055362199E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.74</v>
+        <v>4.68</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>136032.61577712002</v>
+        <v>134310.68393184</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5093,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.63601730495953468</v>
+        <v>0.62776027831200154</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.120118509849636</v>
+        <v>12.949787974328258</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.5143852086342168E-2</v>
+        <v>4.5737636055362199E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5338,20 +5338,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.8639388327587454</v>
+        <v>1.8698536199654701</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.4441013000016127</v>
+        <v>3.4550303744700939</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.1928692150102886</v>
+        <v>2.1998277881946708</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.9948706956535767</v>
+        <v>3.004374238669647</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10498,11 +10498,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-140821737.37162119</v>
+        <v>-140867987.31525487</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7044376204828025</v>
+        <v>1.704668978232315</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12274,17 +12274,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6218823728556442E-2</v>
+        <v>7.7221341537205571E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6218823728556442E-2</v>
+        <v>7.7221341537205571E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6218823728556442E-2</v>
+        <v>7.7221341537205571E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12325,17 +12325,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5143852086342168E-2</v>
+        <v>4.5737636055362199E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5143852086342168E-2</v>
+        <v>4.5737636055362199E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5143852086342168E-2</v>
+        <v>4.5737636055362199E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12395,14 +12395,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6216051325861862</v>
+        <v>8.6646807384599533</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6216051325861862</v>
+        <v>8.6646807384599533</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12423,14 +12423,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4106432568584255</v>
+        <v>4.4246394330475773</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4106432568584255</v>
+        <v>4.4246394330475773</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12473,21 +12473,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>123016575.80175288</v>
+        <v>123631196.10199705</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.2864614928501794</v>
+        <v>4.3078776819494955</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.2864614928501794</v>
+        <v>4.3078776819494955</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.8541557449536521</v>
+        <v>5.8834045103187194</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12497,14 +12497,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-42279302.804304481</v>
+        <v>-42293188.55382061</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.4732047468729934</v>
+        <v>-1.4736885900478853</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12536,27 +12536,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>80737272.9974484</v>
+        <v>81338007.548176438</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.391268234080608</v>
+        <v>2.4090607281163687</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.8132567459771858</v>
+        <v>2.8341890919016102</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.8132567459771858</v>
+        <v>2.8341890919016102</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.8132567459771858</v>
+        <v>2.8341890919016097</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.3809509980806585</v>
+        <v>4.409715920270834</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12597,27 +12597,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>62932855.564339526</v>
+        <v>63132558.710404508</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.8639388327587454</v>
+        <v>1.8698536199654701</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.1928692150102886</v>
+        <v>2.1998277881946708</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.1928692150102886</v>
+        <v>2.1998277881946708</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.1928692150102886</v>
+        <v>2.1998277881946708</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.9948706956535767</v>
+        <v>3.004374238669647</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12658,27 +12658,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>71835064.280893967</v>
+        <v>72235283.129290476</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1276035334196766</v>
+        <v>2.1394571740409196</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.5030629804937372</v>
+        <v>2.5170084400481407</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.5030629804937372</v>
+        <v>2.5170084400481407</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.5030629804937372</v>
+        <v>2.5170084400481403</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.6879108468671173</v>
+        <v>3.7070450794702405</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C340F1EA-BD15-4A1F-9586-DCA3AC76CB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7ECBDB8-1E53-4C30-A0A2-32450F686B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.5737636055362199E-2</v>
+        <v>4.6227244355851925E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.68</v>
+        <v>4.63</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>134310.68393184</v>
+        <v>132875.74072743999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5093,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5139,10 +5139,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5189,7 +5189,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62776027831200154</v>
+        <v>0.62111145796239775</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.949787974328258</v>
+        <v>12.812632412274718</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.5737636055362199E-2</v>
+        <v>4.6227244355851925E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5338,20 +5338,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.8698536199654701</v>
+        <v>1.7114056581301327</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.4550303744700939</v>
+        <v>3.0794427364724917</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.1998277881946708</v>
+        <v>2.0134184213295678</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.004374238669647</v>
+        <v>2.6777762925847757</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10498,11 +10498,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-140867987.31525487</v>
+        <v>-140854828.33547622</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.704668978232315</v>
+        <v>1.7046031525964702</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12274,17 +12274,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7221341537205571E-2</v>
+        <v>7.8047973891921155E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7221341537205571E-2</v>
+        <v>7.8047973891921155E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7221341537205571E-2</v>
+        <v>7.8047973891921155E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12325,17 +12325,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5737636055362199E-2</v>
+        <v>4.6227244355851925E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5737636055362199E-2</v>
+        <v>4.6227244355851925E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.5737636055362199E-2</v>
+        <v>4.6227244355851925E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12384,7 +12384,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12395,14 +12395,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6646807384599533</v>
+        <v>7.9423163277362931</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6646807384599533</v>
+        <v>7.9423163277362931</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12423,14 +12423,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4246394330475773</v>
+        <v>4.0497036131861286</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.4246394330475773</v>
+        <v>4.0497036131861286</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12473,21 +12473,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>123631196.10199705</v>
+        <v>113324206.28725708</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.3078776819494955</v>
+        <v>3.9487349025302327</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.3078776819494955</v>
+        <v>3.9487349025302327</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.8834045103187194</v>
+        <v>5.2516797282082317</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12497,14 +12497,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-42293188.55382061</v>
+        <v>-42289237.796636105</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.4736885900478853</v>
+        <v>-1.4735509275546108</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12536,27 +12536,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>81338007.548176438</v>
+        <v>71034968.490620971</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.4090607281163687</v>
+        <v>2.1039063787292784</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.8341890919016102</v>
+        <v>2.4751839749756219</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.8341890919016102</v>
+        <v>2.4751839749756219</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.8341890919016097</v>
+        <v>2.4751839749756219</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.409715920270834</v>
+        <v>3.7781288006536209</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12597,27 +12597,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>63132558.710404508</v>
+        <v>57782821.626012787</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.8698536199654701</v>
+        <v>1.7114056581301327</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.1998277881946708</v>
+        <v>2.0134184213295678</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.1998277881946708</v>
+        <v>2.0134184213295678</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.1998277881946708</v>
+        <v>2.0134184213295678</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.004374238669647</v>
+        <v>2.6777762925847757</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12658,27 +12658,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>72235283.129290476</v>
+        <v>64408895.058316879</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1394571740409196</v>
+        <v>1.9076560184297056</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.5170084400481407</v>
+        <v>2.2443011981525949</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.5170084400481407</v>
+        <v>2.2443011981525949</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.5170084400481403</v>
+        <v>2.2443011981525949</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.7070450794702405</v>
+        <v>3.2279525466191981</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7ECBDB8-1E53-4C30-A0A2-32450F686B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{148965A2-1C5F-42BA-BB11-050D65CDF251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4197,7 +4208,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6227244355851925E-2</v>
+        <v>4.6285411496183058E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5003,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5044,7 +5055,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>132875.74072743999</v>
+        <v>132588.75208656001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5093,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5260,7 +5271,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62111145796239775</v>
+        <v>0.62033090365449117</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5276,7 +5287,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.812632412274718</v>
+        <v>12.796530704124249</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5308,7 +5319,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6227244355851925E-2</v>
+        <v>4.6285411496183058E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5338,20 +5349,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7114056581301327</v>
+        <v>1.7103334741615126</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.0794427364724917</v>
+        <v>3.0775134866078298</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0134184213295678</v>
+        <v>2.012157028425309</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6777762925847757</v>
+        <v>2.6760986840068086</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10498,11 +10509,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-140854828.33547622</v>
+        <v>-140727459.24384332</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7046031525964702</v>
+        <v>1.7039660096275822</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12274,17 +12285,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8047973891921155E-2</v>
+        <v>7.8146180642360022E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8047973891921155E-2</v>
+        <v>7.8146180642360022E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8047973891921155E-2</v>
+        <v>7.8146180642360022E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12325,17 +12336,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6227244355851925E-2</v>
+        <v>4.6285411496183058E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6227244355851925E-2</v>
+        <v>4.6285411496183058E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6227244355851925E-2</v>
+        <v>4.6285411496183058E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12395,14 +12406,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9423163277362931</v>
+        <v>7.9387494118643804</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9423163277362931</v>
+        <v>7.9387494118643804</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12423,14 +12434,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0497036131861286</v>
+        <v>4.0471665015018861</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0497036131861286</v>
+        <v>4.0471665015018861</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12473,21 +12484,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>113324206.28725708</v>
+        <v>113273312.07788566</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9487349025302327</v>
+        <v>3.9469615149419517</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9487349025302327</v>
+        <v>3.9469615149419517</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.2516797282082317</v>
+        <v>5.2493211845537395</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12497,14 +12508,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-42289237.796636105</v>
+        <v>-42250997.419166207</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.4735509275546108</v>
+        <v>-1.4722184574835777</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12536,27 +12547,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>71034968.490620971</v>
+        <v>71022314.65871945</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1039063787292784</v>
+        <v>2.1035315988396182</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.4751839749756219</v>
+        <v>2.4747430574583742</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.4751839749756219</v>
+        <v>2.4747430574583742</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4751839749756219</v>
+        <v>2.4747430574583742</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.7781288006536209</v>
+        <v>3.7771027270701616</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12597,27 +12608,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>57782821.626012787</v>
+        <v>57746621.082491897</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.7114056581301327</v>
+        <v>1.7103334741615126</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.0134184213295678</v>
+        <v>2.012157028425309</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.0134184213295678</v>
+        <v>2.012157028425309</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.0134184213295678</v>
+        <v>2.012157028425309</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6777762925847757</v>
+        <v>2.6760986840068086</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12658,27 +12669,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>64408895.058316879</v>
+        <v>64384467.87060567</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9076560184297056</v>
+        <v>1.9069325365005654</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.2443011981525949</v>
+        <v>2.2434500429418414</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.2443011981525949</v>
+        <v>2.2434500429418414</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.2443011981525949</v>
+        <v>2.2434500429418414</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2279525466191981</v>
+        <v>3.2266007055384849</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{148965A2-1C5F-42BA-BB11-050D65CDF251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB2F5CEB-3164-4691-B1F7-33CF696A7BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,13 +123,7 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
-  </si>
-  <si>
-    <t>Orderly Liquidation Value per Shares =</t>
   </si>
   <si>
     <t>Book Quick Ratio</t>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -914,10 +897,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -958,6 +937,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>28698864088</v>
@@ -3678,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3850,7 +3875,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>183809908</v>
@@ -3870,7 +3895,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>37506984</v>
@@ -3890,7 +3915,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3906,7 +3931,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C29" s="150">
         <v>0</v>
@@ -3926,7 +3951,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>2199</v>
@@ -3946,7 +3971,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150">
         <v>-169280</v>
@@ -3966,7 +3991,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <v>35974</v>
@@ -3986,7 +4011,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <v>15312</v>
@@ -4024,7 +4049,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -4042,7 +4067,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4078,7 +4103,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -4132,7 +4157,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150">
@@ -4150,7 +4175,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4168,7 +4193,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -4186,7 +4211,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <v>0.2</v>
@@ -4204,11 +4229,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6285411496183058E-2</v>
+        <v>4.6288297977970454E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4253,21 +4278,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>47742240</v>
@@ -4279,7 +4304,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59">
         <v>0</v>
@@ -4291,7 +4316,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <v>121633388</v>
@@ -4304,7 +4329,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <v>7768559</v>
@@ -4316,7 +4341,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59">
         <v>0</v>
@@ -4328,7 +4353,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4341,7 +4366,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C54" s="59">
         <v>44533603</v>
@@ -4353,7 +4378,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>86201047</v>
@@ -4366,7 +4391,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59">
         <v>0</v>
@@ -4376,12 +4401,12 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59">
         <v>0</v>
@@ -4390,12 +4415,12 @@
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59">
         <v>0</v>
@@ -4408,7 +4433,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120">
         <v>11709109</v>
@@ -4421,7 +4446,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59">
         <v>0</v>
@@ -4434,7 +4459,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59">
         <v>2881955</v>
@@ -4447,7 +4472,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59">
         <v>821946</v>
@@ -4460,7 +4485,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4473,7 +4498,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C64" s="59">
         <v>7301425</v>
@@ -4485,7 +4510,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <v>21620835</v>
@@ -4494,12 +4519,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59">
         <v>805212</v>
@@ -4508,12 +4533,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59">
         <v>6765810</v>
@@ -4523,12 +4548,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <v>60750263</v>
@@ -4541,7 +4566,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59">
         <v>0</v>
@@ -4554,7 +4579,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>17178235</v>
@@ -4566,7 +4591,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>4163174</v>
@@ -4579,7 +4604,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247">
         <v>37623092</v>
@@ -4591,7 +4616,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>12970041</v>
@@ -4599,7 +4624,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>13416</v>
@@ -4607,7 +4632,7 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59">
         <v>0</v>
@@ -4615,7 +4640,7 @@
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120">
         <v>9668</v>
@@ -4631,7 +4656,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59">
         <v>6315552</v>
@@ -4639,7 +4664,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>1694399</v>
@@ -4647,19 +4672,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83">
         <v>24023311</v>
@@ -4667,7 +4692,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59">
         <v>160389894</v>
@@ -4675,19 +4700,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4695,10 +4720,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4706,18 +4731,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4726,20 +4751,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4757,7 +4782,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4778,7 +4803,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4799,7 +4824,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4817,7 +4842,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4838,7 +4863,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4856,7 +4881,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4874,7 +4899,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5002,13 +5027,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>1766.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -5017,47 +5042,47 @@
         <v>4.62</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>中国中车</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>28698864088</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
         <v>132588.75208656001</v>
       </c>
-      <c r="H5" s="275"/>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5080,16 +5105,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5104,7 +5129,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5114,40 +5139,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5160,29 +5185,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5192,12 +5217,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5207,29 +5232,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.78463553343209413</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5237,7 +5262,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5248,58 +5273,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.2515926965280349E-5</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62033090365449117</v>
+        <v>0.62029222057618039</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.796530704124249</v>
+        <v>12.795732728082077</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>8.8200573996119572E-5</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5308,18 +5333,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>5.5156426590839844E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6285411496183058E-2</v>
+        <v>4.6288297977970454E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5329,62 +5354,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>257</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7103334741615126</v>
+        <v>1.7104637289778475</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.0775134866078298</v>
+        <v>3.0777478625117234</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.012157028425309</v>
-      </c>
-      <c r="G29" s="274">
+        <v>2.0123102693857029</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6760986840068086</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>2.6763024891406291</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5394,25 +5419,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5422,7 +5447,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5432,14 +5457,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5449,7 +5474,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5464,14 +5489,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6424,12 +6449,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6456,16 +6481,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6483,7 +6508,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6516,7 +6541,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6527,7 +6552,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6679,7 +6704,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6730,7 +6755,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6781,7 +6806,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6832,7 +6857,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6883,7 +6908,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6934,7 +6959,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6985,7 +7010,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7036,7 +7061,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7087,7 +7112,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7138,7 +7163,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7189,7 +7214,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7240,7 +7265,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7291,7 +7316,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7342,7 +7367,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7393,7 +7418,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7444,7 +7469,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7495,7 +7520,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7546,7 +7571,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7597,7 +7622,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7750,7 +7775,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7801,7 +7826,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7903,7 +7928,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8107,7 +8132,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8158,7 +8183,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8209,7 +8234,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8260,7 +8285,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8311,7 +8336,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8362,7 +8387,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8380,7 +8405,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8431,7 +8456,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8482,7 +8507,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8533,7 +8558,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8584,7 +8609,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8635,7 +8660,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8686,7 +8711,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8737,7 +8762,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8754,50 +8779,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0.51922053231500931</v>
-      </c>
-      <c r="D50" s="156">
+      <c r="B50" s="271" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>0.58880514964961994</v>
+      </c>
+      <c r="D50" s="272">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>314.21138998587776</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
-        <v>0.58886323504346172</v>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v/>
+      </c>
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8806,15 +8831,15 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>0.36796930715644566</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>0.51922053231500931</v>
       </c>
       <c r="D51" s="153">
         <f t="shared" si="42"/>
-        <v>0.29985264510251758</v>
+        <v>0.58886323504346172</v>
       </c>
       <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8857,167 +8882,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0.36796930715644566</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" si="43"/>
+        <v>0.29985264510251758</v>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>-1.4950263965598143E-2</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.58309352323463393</v>
-      </c>
-      <c r="D54" s="156">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v>0.21060858391144721</v>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.61519693591548208</v>
-      </c>
-      <c r="D55" s="157">
+      <c r="B55" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.33449411843768651</v>
+      </c>
+      <c r="D55" s="156">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v>0.78735209922197424</v>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
-        <v>2712.0275671120739</v>
-      </c>
-      <c r="E55" s="157" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9025,112 +9051,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="153" t="str">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.61519693591548208</v>
+      </c>
+      <c r="D56" s="157">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v>2712.0275671120739</v>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153" t="str">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-</v>
+      </c>
+      <c r="D57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>1.250490989804119</v>
       </c>
-      <c r="D57" s="158">
-        <f t="shared" si="47"/>
+      <c r="D58" s="158">
+        <f t="shared" si="48"/>
         <v>4.3002657471877468</v>
       </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>8.0688936673279421E-2</v>
+      </c>
+      <c r="D60" s="274">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>16.000637496357289</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>8.0560113095404881E-2</v>
+      </c>
+      <c r="D61" s="274">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>15.993358821355844</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9693,7 +9909,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10376,6 +10594,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10415,8 +10634,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10434,7 +10653,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10449,7 +10668,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10463,7 +10682,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10473,7 +10692,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10491,10 +10710,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10503,22 +10722,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-140727459.24384332</v>
+        <f>(E49-I49-E53)</f>
+        <v>-131620258</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.7039660096275822</v>
+        <v>1.6584087306647404</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10528,8 +10748,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10541,7 +10762,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10559,7 +10780,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10578,32 +10799,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10620,7 +10841,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10631,7 +10852,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10648,7 +10869,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10659,7 +10880,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10676,7 +10897,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10687,7 +10908,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10704,7 +10925,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10715,7 +10936,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10732,7 +10953,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10742,7 +10963,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10764,7 +10985,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10786,7 +11007,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10807,7 +11028,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10832,7 +11053,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10859,7 +11080,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10880,7 +11101,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10897,7 +11118,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10909,13 +11130,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10937,7 +11158,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10957,7 +11178,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10966,7 +11187,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10986,7 +11207,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10999,7 +11220,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -11019,7 +11240,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11065,7 +11286,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11074,7 +11295,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11090,7 +11311,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11100,7 +11321,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11117,7 +11338,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11127,7 +11348,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11144,7 +11365,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11154,7 +11375,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11174,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11184,7 +11405,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11201,7 +11422,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11211,7 +11432,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11237,7 +11458,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11264,7 +11485,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11291,7 +11512,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11312,7 +11533,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11333,7 +11554,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11354,7 +11575,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11375,7 +11596,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11392,7 +11613,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11410,7 +11631,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11429,7 +11650,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11448,7 +11669,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11465,7 +11686,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11478,7 +11699,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11495,7 +11716,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11508,7 +11729,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11525,7 +11746,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11552,7 +11773,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11568,14 +11789,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11592,7 +11813,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11622,7 +11843,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11633,14 +11854,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>21003076</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11648,30 +11869,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11688,11 +11909,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11702,7 +11923,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11723,7 +11944,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11744,7 +11965,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11765,7 +11986,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11780,7 +12001,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11811,11 +12032,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11825,7 +12046,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11846,7 +12067,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11861,7 +12082,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11883,21 +12104,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11907,23 +12128,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11944,7 +12165,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11974,7 +12195,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11995,7 +12216,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12025,7 +12246,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12055,7 +12276,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12086,7 +12307,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12113,12 +12334,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12148,7 +12369,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12178,7 +12399,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12208,7 +12429,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12229,7 +12450,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12260,7 +12481,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12281,28 +12502,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8146180642360022E-2</v>
+        <v>7.8151054046741386E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8146180642360022E-2</v>
+        <v>7.8151054046741386E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8146180642360022E-2</v>
+        <v>7.8151054046741386E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12332,21 +12553,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6285411496183058E-2</v>
+        <v>4.6288297977970454E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6285411496183058E-2</v>
+        <v>4.6288297977970454E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6285411496183058E-2</v>
+        <v>4.6288297977970454E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12363,29 +12584,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12402,24 +12623,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9387494118643804</v>
+        <v>7.9394239287739516</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9387494118643804</v>
+        <v>7.9394239287739516</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12430,18 +12651,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0471665015018861</v>
+        <v>4.0474747238089934</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0471665015018861</v>
+        <v>4.0474747238089934</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12460,69 +12681,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>113273312.07788566</v>
+        <v>113282936.36005351</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9469615149419517</v>
+        <v>3.9472968690569559</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9469615149419517</v>
+        <v>3.9472968690569559</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.2493211845537395</v>
+        <v>5.2497671938329171</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-42250997.419166207</v>
+        <v>-42253632.304124713</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.4722184574835777</v>
+        <v>-1.4723102689556424</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12543,31 +12764,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>71022314.65871945</v>
+        <v>71029304.055928797</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1035315988396182</v>
+        <v>2.1037386100861162</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.4747430574583742</v>
+        <v>2.4749866001013134</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.4747430574583742</v>
+        <v>2.4749866001013134</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4747430574583742</v>
+        <v>2.4749866001013134</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.7771027270701616</v>
+        <v>3.7774569248772747</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12577,58 +12798,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>57746621.082491897</v>
+        <v>57751018.923986956</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.7103334741615126</v>
+        <v>1.7104637289778475</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.012157028425309</v>
+        <v>2.0123102693857029</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.012157028425309</v>
+        <v>2.0123102693857029</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.012157028425309</v>
+        <v>2.0123102693857029</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6760986840068086</v>
+        <v>2.6763024891406291</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12638,58 +12859,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>64384467.87060567</v>
+        <v>64390161.489957877</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9069325365005654</v>
+        <v>1.9071011695319817</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.2434500429418414</v>
+        <v>2.2436484347435082</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.2434500429418414</v>
+        <v>2.2436484347435082</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.2434500429418414</v>
+        <v>2.2436484347435082</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2266007055384849</v>
+        <v>3.2268797070089521</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12698,7 +12919,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12707,6 +12928,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB2F5CEB-3164-4691-B1F7-33CF696A7BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A4120EB-0C4D-4DCB-BA11-270B5081291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -956,10 +922,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -973,6 +935,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.78463553343209413</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16010732347610457</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2515926965280349E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.8200573996119572E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5156426590839844E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3678,7 +2841,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -3687,15 +2850,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>28698864088</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3931,7 +3094,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>0</v>
@@ -4067,7 +3230,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4175,7 +3338,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4211,7 +3374,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0.2</v>
@@ -4229,11 +3392,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6288297977970454E-2</v>
+        <v>4.6586477851729167E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4278,13 +3441,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4353,7 +3516,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4366,7 +3529,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59">
         <v>44533603</v>
@@ -4485,7 +3648,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4498,7 +3661,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59">
         <v>7301425</v>
@@ -4692,7 +3855,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>160389894</v>
@@ -4712,7 +3875,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4720,10 +3883,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4733,16 +3896,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4751,10 +3914,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4803,7 +3966,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4824,7 +3987,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4842,7 +4005,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4881,7 +4044,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4899,7 +4062,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4985,8 +4148,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5027,62 +4190,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>1766.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>中国中车</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>28698864088</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>132588.75208656001</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>131727.78616391998</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5105,16 +4268,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5129,7 +4292,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5139,40 +4302,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5185,29 +4348,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5217,12 +4380,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5230,9 +4393,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5240,91 +4403,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.78463553343209413</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>8.0688936673279421E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.16010732347610457</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.33449411843768651</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>1.2515926965280349E-5</v>
+      <c r="B22" s="279" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>0.48855383999011653</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>5.5244627164835962E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62029222057618039</v>
+        <v>0.6163219986458256</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.795732728082077</v>
+        <v>12.713832783174176</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>8.8200573996119572E-5</v>
+        <f>Fin_Analysis!I80</f>
+        <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5333,18 +4496,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>5.5156426590839844E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>8.8200573996119572E-5</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6288297977970454E-2</v>
+        <v>4.6586477851729167E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5354,62 +4517,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7104637289778475</v>
+        <v>1.7127422071713125</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.0777478625117234</v>
+        <v>3.0818476754869488</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0123102693857029</v>
-      </c>
-      <c r="G29" s="278">
+        <v>2.0149908319662502</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6763024891406291</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>2.679867543901695</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5419,7 +4582,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5430,14 +4593,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5447,7 +4610,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5457,14 +4620,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5474,7 +4637,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5489,14 +4652,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6440,7 +5603,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6454,7 +5616,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6481,16 +5643,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6508,7 +5670,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6541,7 +5703,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6908,7 +6070,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6959,7 +6121,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7010,7 +6172,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7061,7 +6223,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7163,7 +6325,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7316,7 +6478,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7826,7 +6988,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8336,7 +7498,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8387,7 +7549,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8456,7 +7618,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8660,7 +7822,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8762,7 +7924,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8780,15 +7942,15 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>0.58880514964961994</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>0.48855383999011653</v>
       </c>
       <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
-        <v>314.21138998587776</v>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
+        <v>62.305402582724803</v>
       </c>
       <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
@@ -8831,7 +7993,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8882,7 +8044,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8933,7 +8095,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8984,7 +8146,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -9001,7 +8163,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9201,15 +8363,15 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="E59" s="273" t="str">
         <f t="shared" si="49"/>
@@ -9251,7 +8413,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9301,7 +8463,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10805,7 +9967,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10963,7 +10125,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11375,7 +10537,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11843,7 +11005,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11857,11 +11019,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>21003076</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11872,11 +11034,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11888,11 +11050,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11909,7 +11071,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11986,7 +11148,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12032,7 +11194,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12067,7 +11229,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12106,19 +11268,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12128,18 +11290,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12216,7 +11378,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12246,7 +11408,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12276,7 +11438,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12339,7 +11501,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12369,7 +11531,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12450,7 +11612,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12481,7 +11643,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12502,28 +11664,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8151054046741386E-2</v>
+        <v>7.8654487364614903E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8151054046741386E-2</v>
+        <v>7.8654487364614903E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8151054046741386E-2</v>
+        <v>7.8654487364614903E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12553,21 +11715,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6288297977970454E-2</v>
+        <v>4.6586477851729167E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6288297977970454E-2</v>
+        <v>4.6586477851729167E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6288297977970454E-2</v>
+        <v>4.6586477851729167E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12589,24 +11751,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12623,24 +11785,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9394239287739516</v>
+        <v>7.9572330998478691</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9394239287739516</v>
+        <v>7.9572330998478691</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12651,18 +11813,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0474747238089934</v>
+        <v>4.0528662926219203</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0474747238089934</v>
+        <v>4.0528662926219203</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12681,14 +11843,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12705,21 +11867,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>113282936.36005351</v>
+        <v>113537044.8711358</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9472968690569559</v>
+        <v>3.9561511745898548</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9472968690569559</v>
+        <v>3.9561511745898548</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.2497671938329171</v>
+        <v>5.2615431114425526</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12729,14 +11891,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-42253632.304124713</v>
+        <v>-42249679.976686954</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.4723102689556424</v>
+        <v>-1.4721725517475452</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12768,27 +11930,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>71029304.055928797</v>
+        <v>71287364.894448847</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1037386100861162</v>
+        <v>2.1113818294159632</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.4749866001013134</v>
+        <v>2.4839786228423097</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.4749866001013134</v>
+        <v>2.4839786228423097</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4749866001013134</v>
+        <v>2.4839786228423093</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.7774569248772747</v>
+        <v>3.7893705596950076</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12798,21 +11960,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12825,31 +11987,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>57751018.923986956</v>
+        <v>57827948.025165461</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.7104637289778475</v>
+        <v>1.7127422071713125</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.0123102693857029</v>
+        <v>2.0149908319662502</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.0123102693857029</v>
+        <v>2.0149908319662502</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.0123102693857029</v>
+        <v>2.0149908319662502</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6763024891406291</v>
+        <v>2.679867543901695</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12859,21 +12021,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12886,31 +12048,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>64390161.489957877</v>
+        <v>64557656.45980715</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9071011695319817</v>
+        <v>1.9120620182936379</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.2436484347435082</v>
+        <v>2.2494847274042797</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.2436484347435082</v>
+        <v>2.2494847274042797</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.2436484347435082</v>
+        <v>2.2494847274042797</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2268797070089521</v>
+        <v>3.2346190517983513</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12919,7 +12081,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A4120EB-0C4D-4DCB-BA11-270B5081291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86BA3496-588A-4815-AF2B-95EF642B63DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -906,10 +902,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -971,6 +963,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -2841,7 +2861,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -2850,15 +2870,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>28698864088</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3094,7 +3114,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="150">
         <v>0</v>
@@ -3192,9 +3212,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150">
@@ -3212,7 +3232,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -3230,7 +3250,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -3247,10 +3267,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150">
         <v>734909</v>
       </c>
@@ -3264,9 +3285,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>263</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -3319,10 +3340,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150">
         <v>2824568</v>
       </c>
@@ -3338,9 +3360,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150">
         <v>7297</v>
       </c>
@@ -3356,7 +3378,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -3374,7 +3396,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <v>0.2</v>
@@ -3392,11 +3414,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6586477851729167E-2</v>
+        <v>4.6482303868169379E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3441,13 +3463,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3467,7 +3489,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59">
         <v>0</v>
@@ -3479,7 +3501,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <v>121633388</v>
@@ -3516,7 +3538,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -3529,7 +3551,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59">
         <v>44533603</v>
@@ -3569,7 +3591,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59">
         <v>0</v>
@@ -3648,7 +3670,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -3661,7 +3683,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59">
         <v>7301425</v>
@@ -3716,7 +3738,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <v>60750263</v>
@@ -3855,7 +3877,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59">
         <v>160389894</v>
@@ -3875,7 +3897,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3883,10 +3905,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3894,7 +3916,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3902,10 +3924,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3927,7 +3949,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3966,7 +3988,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3987,7 +4009,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4005,7 +4027,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4044,7 +4066,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4062,7 +4084,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4085,28 +4107,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4148,8 +4175,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4190,7 +4217,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4202,15 +4229,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.59</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4230,7 +4257,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4243,7 +4270,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>131727.78616391998</v>
+        <v>132014.77480479999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4277,7 +4304,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4292,7 +4319,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4302,40 +4329,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4348,29 +4375,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4380,12 +4407,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4395,7 +4422,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4403,21 +4430,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276">
+        <v>251</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>8.0688936673279421E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4425,69 +4452,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.33449411843768651</v>
+        <v>249</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>0.48855383999011653</v>
+        <v>256</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>5.5244627164835962E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.6163219986458256</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.713832783174176</v>
+        <v>12.742326435534709</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4496,18 +4523,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>8.8200573996119572E-5</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6586477851729167E-2</v>
+        <v>4.6482303868169379E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4517,40 +4544,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7127422071713125</v>
+        <v>1.7117832101591259</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.0818476754869488</v>
+        <v>3.0801220902234863</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0149908319662502</v>
+        <v>2.0138626001872071</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.679867543901695</v>
+        <v>2.6783670349769446</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4558,21 +4585,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4582,25 +4609,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4610,7 +4637,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4620,14 +4647,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4637,7 +4664,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4652,14 +4679,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5559,27 +5586,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5611,12 +5638,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5643,16 +5670,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5670,7 +5697,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5703,7 +5730,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5714,7 +5741,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6070,7 +6097,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6121,7 +6148,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6172,7 +6199,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6223,7 +6250,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6325,7 +6352,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6478,7 +6505,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6733,7 +6760,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6784,7 +6811,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6838,15 +6865,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>479499893</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
-        <v>3578159</v>
+        <f>IF(D34="","",D34+D30)</f>
+        <v>3559477</v>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6886,50 +6913,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>319587946</v>
+        <f>Fin_Analysis!C13</f>
+        <v>121633388</v>
       </c>
       <c r="D28" s="199">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
-        <v>3160304</v>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v>131280367</v>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6937,50 +6964,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>121633388</v>
+        <f>Fin_Analysis!C18</f>
+        <v>86201047</v>
       </c>
       <c r="D29" s="199">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
-        <v>131280367</v>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <v>66848740</v>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6988,101 +7015,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>86201047</v>
+        <f>Inputs!C37</f>
+        <v>0</v>
       </c>
       <c r="D30" s="199">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v>66848740</v>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v>734909</v>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>255569971</v>
+        <f>Fin_Analysis!I15</f>
+        <v>12993125</v>
       </c>
       <c r="D31" s="199">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v>734909</v>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
+        <v>6202</v>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7090,101 +7117,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>24023311</v>
+        <f>Fin_Analysis!I34</f>
+        <v>8009951</v>
       </c>
       <c r="D32" s="199">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
-        <v>18682</v>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <v>10412</v>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>12993125</v>
-      </c>
-      <c r="D33" s="199">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v>6202</v>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>21003076</v>
+      </c>
+      <c r="D33" s="77">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v>16614</v>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7192,50 +7219,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>8009951</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
-        <v>10412</v>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <v>2824568</v>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7243,50 +7270,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>21003076</v>
-      </c>
-      <c r="D35" s="77">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v>16614</v>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v>7297</v>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7294,50 +7321,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>199906611</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v>2824568</v>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
+        <v>2868641</v>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7345,272 +7372,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>39516717</v>
-      </c>
-      <c r="D37" s="199">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v>7297</v>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>397859146</v>
+      </c>
+      <c r="D37" s="65">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v>690836</v>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>81640747</v>
-      </c>
-      <c r="D38" s="199">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v>2868641</v>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>3.2528320965128699E-2</v>
+      </c>
+      <c r="D38" s="155">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>65.251567665842543</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>397859146</v>
-      </c>
-      <c r="D39" s="65">
-        <f>IF(D38="","",D27-D38)</f>
-        <v>709518</v>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>3.2528320965128699E-2</v>
-      </c>
-      <c r="D40" s="155">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>63.533457924957503</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.78463553343209413</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.79510875900797762</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.16010732347610457</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>2.6876543611415371E-3</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.78463553343209413</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.79510875900797762</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7618,50 +7645,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.16010732347610457</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>0</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>2.6876543611415371E-3</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7669,50 +7696,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>1.2515926965280349E-5</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>3.8575637295207831E-6</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7720,50 +7747,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>8.8200573996119572E-5</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>9.1980467252968803E-5</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7771,221 +7798,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>1.2515926965280349E-5</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>5.5156426590839844E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>3.8575637295207831E-6</v>
+        <f t="shared" si="40"/>
+        <v>0.20210774859989836</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>8.8200573996119572E-5</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>9.1980467252968803E-5</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>5.5156426590839844E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.20210774859989836</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272">
+        <f t="shared" si="41"/>
+        <v>62.632413975423916</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0.51922053231500931</v>
+      </c>
+      <c r="D49" s="153">
+        <f t="shared" si="42"/>
+        <v>0.58886323504346172</v>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>0.48855383999011653</v>
-      </c>
-      <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>62.305402582724803</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0.36796930715644566</v>
+      </c>
+      <c r="D50" s="153">
+        <f t="shared" si="43"/>
+        <v>0.29985264510251758</v>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7993,522 +8020,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0.51922053231500931</v>
-      </c>
-      <c r="D51" s="153">
-        <f t="shared" si="42"/>
-        <v>0.58886323504346172</v>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>-1.4950263965598143E-2</v>
+      </c>
+      <c r="D51" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0.36796930715644566</v>
-      </c>
-      <c r="D52" s="153">
-        <f t="shared" si="43"/>
-        <v>0.29985264510251758</v>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>-1.4950263965598143E-2</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.79148453550900877</v>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>0.61519693591548208</v>
+      </c>
+      <c r="D54" s="157">
+        <f t="shared" si="46"/>
+        <v>2712.0275671120739</v>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.33449411843768651</v>
-      </c>
-      <c r="D55" s="156">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v>0.78735209922197424</v>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153" t="str">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.61519693591548208</v>
-      </c>
-      <c r="D56" s="157">
-        <f t="shared" si="46"/>
-        <v>2712.0275671120739</v>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153" t="str">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-</v>
-      </c>
-      <c r="D57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v>-</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>1.250490989804119</v>
-      </c>
-      <c r="D58" s="158">
-        <f t="shared" si="48"/>
-        <v>4.3002657471877468</v>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274">
+        <f t="shared" si="49"/>
+        <v>16.000637496357289</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274">
+        <f t="shared" si="50"/>
+        <v>15.993358821355844</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>8.0688936673279421E-2</v>
-      </c>
-      <c r="D60" s="274">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>16.000637496357289</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>8.0560113095404881E-2</v>
-      </c>
-      <c r="D61" s="274">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>15.993358821355844</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9068,12 +8999,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9755,27 +9682,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9889,13 +9819,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>-131620258</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>1.6584087306647404</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9915,9 +9845,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9967,7 +9897,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10014,7 +9944,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10042,7 +9972,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10125,7 +10055,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10147,7 +10077,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10215,7 +10145,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10537,7 +10467,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10674,7 +10604,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10961,9 +10891,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10981,13 +10911,13 @@
         <f>MAX(D4,0)</f>
         <v>39516717</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>39516717</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11005,7 +10935,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11071,7 +11001,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11106,7 +11036,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11127,7 +11057,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11148,7 +11078,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11163,7 +11093,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11194,7 +11124,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11208,7 +11138,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11229,7 +11159,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11244,7 +11174,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11266,7 +11196,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11274,11 +11204,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11306,7 +11236,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11378,7 +11308,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11408,7 +11338,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11438,7 +11368,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11496,12 +11426,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11531,7 +11461,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11561,7 +11491,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11612,7 +11542,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11643,7 +11573,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11664,28 +11594,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8654487364614903E-2</v>
+        <v>7.8478604755508816E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8654487364614903E-2</v>
+        <v>7.8478604755508816E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8654487364614903E-2</v>
+        <v>7.8478604755508816E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11715,21 +11645,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6586477851729167E-2</v>
+        <v>4.6482303868169379E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6586477851729167E-2</v>
+        <v>4.6482303868169379E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6586477851729167E-2</v>
+        <v>4.6482303868169379E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11746,27 +11676,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11785,24 +11715,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9572330998478691</v>
+        <v>7.9502519406597241</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9572330998478691</v>
+        <v>7.9502519406597241</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11813,18 +11743,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0528662926219203</v>
+        <v>4.0505970155239766</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0528662926219203</v>
+        <v>4.0505970155239766</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11843,14 +11773,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11863,49 +11793,49 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>113537044.8711358</v>
+        <v>113437434.84663971</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9561511745898548</v>
+        <v>3.952680304656095</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9561511745898548</v>
+        <v>3.952680304656095</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.2615431114425526</v>
+        <v>5.2569269754596855</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-42249679.976686954</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.4721725517475452</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11928,29 +11858,29 @@
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>71287364.894448847</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1113818294159632</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.4839786228423097</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>2.4839786228423097</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4839786228423093</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.7893705596950076</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11960,21 +11890,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11987,31 +11917,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>57827948.025165461</v>
+        <v>57795569.054678939</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.7127422071713125</v>
+        <v>1.7117832101591259</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.0149908319662502</v>
+        <v>2.0138626001872071</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.0149908319662502</v>
+        <v>2.0138626001872071</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.0149908319662502</v>
+        <v>2.0138626001872071</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.679867543901695</v>
+        <v>2.6783670349769446</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12021,21 +11951,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12048,31 +11978,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>64557656.45980715</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>1.9120620182936379</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>2.2494847274042797</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>2.2494847274042797</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>2.2494847274042797</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>3.2346190517983513</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12081,7 +12011,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86BA3496-588A-4815-AF2B-95EF642B63DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9B3B4FB-979E-442F-B5AA-550535702461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -942,10 +938,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -975,6 +967,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>265</v>
+      <c r="C4" s="187" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>266</v>
+      <c r="C5" s="190" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45593</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>267</v>
+      <c r="C9" s="191" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>28698864088</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>268</v>
+      <c r="C11" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>242</v>
+      <c r="B15" s="215" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>270</v>
+      <c r="C19" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>270</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>269</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>271</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,435 +3048,439 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>234261514</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>222938637</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>183809908</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>177260463</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>37506984</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>599182</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="150">
+        <v>238</v>
+      </c>
+      <c r="C29" s="149">
         <v>0</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>0</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>2199</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>645</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <v>-169280</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <v>-50846</v>
       </c>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>35974</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>32106</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>15312</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>11600</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150">
+        <v>262</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149">
         <v>3160304</v>
       </c>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150">
+      <c r="C35" s="214"/>
+      <c r="D35" s="149">
         <v>131280367</v>
       </c>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150">
+      <c r="C36" s="214"/>
+      <c r="D36" s="149">
         <v>66848740</v>
       </c>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150">
+      <c r="B37" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="149">
+        <v>279593282</v>
+      </c>
+      <c r="D37" s="149">
         <v>734909</v>
       </c>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150">
+        <v>261</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149">
         <v>18682</v>
       </c>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150">
+      <c r="C39" s="214"/>
+      <c r="D39" s="149">
         <v>6202</v>
       </c>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150">
+      <c r="C40" s="214"/>
+      <c r="D40" s="149">
         <v>10412</v>
       </c>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150">
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>199906611</v>
+      </c>
+      <c r="D41" s="149">
         <v>2824568</v>
       </c>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150">
+      <c r="C42" s="149">
+        <v>39516717</v>
+      </c>
+      <c r="D42" s="149">
         <v>7297</v>
       </c>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150">
+      <c r="C43" s="214"/>
+      <c r="D43" s="149">
         <v>2868641</v>
       </c>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <v>0.2</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="152">
+        <v>234</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6482303868169379E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>4.62438671447842E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3551,7 +3563,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59">
         <v>44533603</v>
@@ -3585,7 +3597,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3599,7 +3611,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3620,10 +3632,10 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120">
+      <c r="C59" s="119">
         <v>11709109</v>
       </c>
-      <c r="D59" s="195">
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3683,7 +3695,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59">
         <v>7301425</v>
@@ -3703,7 +3715,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3717,7 +3729,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3732,7 +3744,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3788,16 +3800,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <v>37623092</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3827,7 +3839,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120">
+      <c r="C76" s="119">
         <v>9668</v>
       </c>
     </row>
@@ -3865,21 +3877,21 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83">
+        <v>265</v>
+      </c>
+      <c r="C82" s="214">
         <v>24023311</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59">
+        <v>266</v>
+      </c>
+      <c r="C83" s="214">
         <v>160389894</v>
       </c>
     </row>
@@ -3897,20 +3909,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3940,10 +3952,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3955,12 +3967,12 @@
         <f>C25</f>
         <v>234261514</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>234261514</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>234261514</v>
       </c>
@@ -3973,75 +3985,75 @@
         <f>C26</f>
         <v>183809908</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.78463553343209413</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>183809908</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>183809908</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>37506984</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.16010732347610457</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>37506984</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>37506984</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>0</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>0</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>20662</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>8.8200573996119572E-5</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>20662</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>20662</v>
       </c>
@@ -4054,12 +4066,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4072,12 +4084,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>2932</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>1.2515926965280349E-5</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>2932</v>
       </c>
@@ -4086,16 +4098,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.2</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.2</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.2</v>
       </c>
@@ -4176,7 +4188,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4228,11 +4240,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>4.62</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4270,7 +4282,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>132014.77480479999</v>
+        <v>132588.75208656001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4280,11 +4292,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4306,11 +4318,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0004</v>
       </c>
@@ -4318,8 +4330,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4328,10 +4340,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4339,7 +4351,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4347,13 +4359,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4362,12 +4374,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="174">
+        <v>235</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4377,7 +4389,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4388,7 +4400,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4396,13 +4408,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4412,129 +4424,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="175">
+        <v>236</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>8.0688936673279421E-2</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.33449411843768651</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>0.48855383999011653</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>5.5244627164835962E-2</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.62088819366149484</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.742326435534709</v>
+        <v>12.808026792169697</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.59229268936393198</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>8.8200573996119572E-5</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6482303868169379E-2</v>
+        <v>4.62438671447842E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4551,10 +4563,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4562,22 +4574,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7117832101591259</v>
-      </c>
-      <c r="D29" s="129">
+        <v>1.7084591065968753</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>3.0801220902234863</v>
+        <v>3.0741408159876404</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0138626001872071</v>
+        <v>2.009951890113971</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6783670349769446</v>
+        <v>2.6731659269457744</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4585,23 +4597,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4609,9 +4621,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4619,17 +4631,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4637,26 +4649,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4664,9 +4676,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4679,16 +4691,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5640,10 +5652,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5669,16 +5681,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5692,11 +5704,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5721,7 +5733,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5729,7 +5741,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5793,47 +5805,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>234261514</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>222938637</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5895,47 +5907,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>183809908</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>177260463</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5946,47 +5958,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>50451606</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>45678174</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5997,47 +6009,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>37506984</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>599182</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6048,47 +6060,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6097,49 +6109,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2932</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>860</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6147,50 +6159,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>5.5244627164835962E-2</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.20219972906715133</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6198,50 +6210,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>12941690</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>45078132</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6249,50 +6261,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.71290536173947938</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6303,47 +6315,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-169280</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-50846</v>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6352,49 +6364,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="199">
+        <v>238</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6405,47 +6417,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>1.5356342314085786E-4</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>1.4401272220929565E-4</v>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6456,47 +6468,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>35974</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>32106</v>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6505,49 +6517,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>6.5362849144738304E-5</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>5.2032254956326836E-5</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6558,47 +6570,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>15312</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>11600</v>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6609,47 +6621,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>12921028</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>45057626</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6660,47 +6672,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>4.1367319943129879E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>0.15158081144992377</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6711,7 +6723,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>9690771</v>
       </c>
@@ -6759,50 +6771,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.71323327154431082</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6866,7 +6878,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>479499893</v>
       </c>
       <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
@@ -6919,43 +6931,43 @@
         <f>Fin_Analysis!C13</f>
         <v>121633388</v>
       </c>
-      <c r="D28" s="199">
+      <c r="D28" s="198">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>131280367</v>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6970,43 +6982,43 @@
         <f>Fin_Analysis!C18</f>
         <v>86201047</v>
       </c>
-      <c r="D29" s="199">
+      <c r="D29" s="198">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>66848740</v>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7015,49 +7027,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199">
+        <v>279593282</v>
+      </c>
+      <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>734909</v>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7072,43 +7084,43 @@
         <f>Fin_Analysis!I15</f>
         <v>12993125</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>6202</v>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7123,43 +7135,43 @@
         <f>Fin_Analysis!I34</f>
         <v>8009951</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>10412</v>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7223,45 +7235,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199">
+        <v>199906611</v>
+      </c>
+      <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>2824568</v>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7274,45 +7286,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199">
+        <v>39516717</v>
+      </c>
+      <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>7297</v>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7327,43 +7339,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>2868641</v>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7425,47 +7437,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>3.2528320965128699E-2</v>
       </c>
-      <c r="D38" s="155">
+      <c r="D38" s="154">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>65.251567665842543</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7474,7 +7486,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7494,47 +7506,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.78463553343209413</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.79510875900797762</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7543,49 +7555,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.16010732347610457</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>2.6876543611415371E-3</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7596,47 +7608,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7647,47 +7659,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7698,47 +7710,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.2515926965280349E-5</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>3.8575637295207831E-6</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7747,49 +7759,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>8.8200573996119572E-5</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>9.1980467252968803E-5</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7800,47 +7812,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>5.5156426590839844E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.20210774859989836</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7849,9 +7861,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>246</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>264</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7866,50 +7880,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272">
+        <v>0.48855383999011653</v>
+      </c>
+      <c r="D48" s="269">
         <f t="shared" si="41"/>
         <v>62.632413975423916</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7918,49 +7932,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="153">
+        <v>253</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.51922053231500931</v>
       </c>
-      <c r="D49" s="153">
+      <c r="D49" s="152">
         <f t="shared" si="42"/>
         <v>0.58886323504346172</v>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7969,49 +7983,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="153">
+        <v>254</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.36796930715644566</v>
       </c>
-      <c r="D50" s="153">
+      <c r="D50" s="152">
         <f t="shared" si="43"/>
         <v>0.29985264510251758</v>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8020,49 +8034,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="153">
+        <v>244</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-1.4950263965598143E-2</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8071,7 +8085,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8088,49 +8102,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>248</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156">
+        <v>0.33449411843768651</v>
+      </c>
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
         <v>0.79148453550900877</v>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8140,47 +8154,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.61519693591548208</v>
       </c>
-      <c r="D54" s="157">
+      <c r="D54" s="156">
         <f t="shared" si="46"/>
         <v>2712.0275671120739</v>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8190,47 +8204,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153" t="str">
+      <c r="C55" s="152" t="str">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-</v>
       </c>
-      <c r="D55" s="153" t="str">
+      <c r="D55" s="152" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8240,47 +8254,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8288,149 +8302,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>249</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274">
+        <v>8.0688936673279421E-2</v>
+      </c>
+      <c r="D58" s="271">
         <f t="shared" si="49"/>
         <v>16.000637496357289</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274">
+        <v>8.0560113095404881E-2</v>
+      </c>
+      <c r="D59" s="271">
         <f t="shared" si="50"/>
         <v>15.993358821355844</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9726,8 +9740,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9763,8 +9777,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>199906611</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9776,8 +9790,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>160389894</v>
       </c>
       <c r="K3" s="24"/>
@@ -9787,8 +9801,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>39516717</v>
       </c>
       <c r="E4" s="37"/>
@@ -9819,13 +9833,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-131620258</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>1.6584087306647404</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9845,9 +9859,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9875,11 +9889,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9922,7 +9936,7 @@
         <f>Inputs!C48</f>
         <v>47742240</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9950,7 +9964,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9978,7 +9992,7 @@
         <f>Inputs!C50</f>
         <v>121633388</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10006,7 +10020,7 @@
         <f>Inputs!C51</f>
         <v>7768559</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10019,7 +10033,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>9668</v>
       </c>
@@ -10034,7 +10048,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10061,7 +10075,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10083,7 +10097,7 @@
         <f>Inputs!C54</f>
         <v>44533603</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10105,7 +10119,7 @@
         <f>Inputs!C55</f>
         <v>86201047</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10126,7 +10140,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10134,7 +10148,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10151,7 +10165,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10159,7 +10173,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10178,7 +10192,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10199,7 +10213,7 @@
         <f>Inputs!C59</f>
         <v>11709109</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10364,7 +10378,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>255569971</v>
       </c>
@@ -10393,7 +10407,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10419,7 +10433,7 @@
         <f>Inputs!C61</f>
         <v>2881955</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10446,7 +10460,7 @@
         <f>Inputs!C62</f>
         <v>821946</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10473,7 +10487,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10489,7 +10503,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10503,7 +10517,7 @@
         <f>Inputs!C64</f>
         <v>7301425</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10530,7 +10544,7 @@
         <f>Inputs!C65</f>
         <v>21620835</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10538,7 +10552,7 @@
         <f t="shared" si="1"/>
         <v>2162083.5</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10556,7 +10570,7 @@
         <f>Inputs!C66</f>
         <v>805212</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10564,7 +10578,7 @@
         <f t="shared" si="1"/>
         <v>161042.40000000002</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10583,7 +10597,7 @@
         <f>Inputs!C67</f>
         <v>6765810</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10591,7 +10605,7 @@
         <f t="shared" si="1"/>
         <v>676581</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10610,7 +10624,7 @@
         <f>Inputs!C68</f>
         <v>60750263</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10631,7 +10645,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10652,7 +10666,7 @@
         <f>Inputs!C70</f>
         <v>17178235</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10673,7 +10687,7 @@
         <f>Inputs!C71</f>
         <v>4163174</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10694,7 +10708,7 @@
         <f>Inputs!C72</f>
         <v>37623092</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10840,8 +10854,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>24023311</v>
       </c>
       <c r="J48" s="8"/>
@@ -10867,8 +10881,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>279593282</v>
       </c>
       <c r="J49" s="87"/>
@@ -10891,9 +10905,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10911,13 +10925,13 @@
         <f>MAX(D4,0)</f>
         <v>39516717</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>39516717</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10938,7 +10952,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11038,7 +11052,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>47742240</v>
       </c>
@@ -11046,7 +11060,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>42968016</v>
       </c>
@@ -11077,11 +11091,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>21003076</v>
@@ -11158,12 +11172,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>258590206</v>
       </c>
@@ -11242,17 +11256,17 @@
         <f>Data!C6</f>
         <v>234261514</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>234261514</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>234261514</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11263,23 +11277,23 @@
         <f>Data!C8</f>
         <v>183809908</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.78463553343209413</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>183809908</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.78463553343209413</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>183809908</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.78463553343209413</v>
       </c>
@@ -11289,48 +11303,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>50451606</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>50451606</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>50451606</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>37506984</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.16010732347610457</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>37506984</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.16010732347610457</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>37506984</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.16010732347610457</v>
       </c>
@@ -11344,54 +11358,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>2932</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>1.2515926965280349E-5</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>2932</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>1.2515926965280349E-5</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>2932</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>1.2515926965280349E-5</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>12941690</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>5.5244627164835962E-2</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>12941690</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>5.5244627164835962E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>12941690</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>5.5244627164835962E-2</v>
       </c>
@@ -11405,55 +11419,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>0</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>0</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>0</v>
       </c>
@@ -11461,29 +11475,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>20662</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>8.8200573996119572E-5</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>20662</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>8.8200573996119572E-5</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>20662</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>8.8200573996119572E-5</v>
       </c>
@@ -11493,27 +11507,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>12921028</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>5.5156426590839844E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>12921028</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>5.5156426590839844E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>12921028</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>5.5156426590839844E-2</v>
       </c>
@@ -11523,49 +11537,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>9690771</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>4.1367319943129879E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>9690771</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>4.1367319943129879E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>9690771</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>4.1367319943129879E-2</v>
       </c>
@@ -11575,69 +11589,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.33767089074623169</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.33767089074623169</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.33767089074623169</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8478604755508816E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>7.807603905164838E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8478604755508816E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>7.807603905164838E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8478604755508816E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>7.807603905164838E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.2</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.59229268936393198</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.2</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.59229268936393198</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.2</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.59229268936393198</v>
       </c>
@@ -11645,23 +11659,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6482303868169379E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>4.62438671447842E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6482303868169379E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>4.62438671447842E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6482303868169379E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>4.62438671447842E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11683,7 +11697,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11706,27 +11720,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9502519406597241</v>
+        <v>7.9290441104207394</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9502519406597241</v>
+        <v>7.9290441104207394</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11734,27 +11748,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0505970155239766</v>
+        <v>4.0427311807099446</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0505970155239766</v>
+        <v>4.0427311807099446</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11768,25 +11782,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11797,21 +11811,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>113437434.84663971</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>113134832.88145295</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.952680304656095</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>3.9421362648551161</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.952680304656095</v>
-      </c>
-      <c r="I97" s="123">
+        <v>3.9421362648551161</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.2569269754596855</v>
+        <v>5.2429037701944399</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11819,18 +11833,18 @@
       <c r="B98" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-42213074.232853413</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-1.4708970398066792</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11841,46 +11855,46 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>70921758.648599535</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>2.1005533412911714</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>2.471239225048437</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>2.471239225048437</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>2.471239225048437</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>3.7720067303877607</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11892,25 +11906,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11921,27 +11935,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>57795569.054678939</v>
+        <v>57683336.117799565</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.7117832101591259</v>
-      </c>
-      <c r="E103" s="123">
+        <v>1.7084591065968753</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.0138626001872071</v>
+        <v>2.009951890113971</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.0138626001872071</v>
-      </c>
-      <c r="H103" s="123">
+        <v>2.009951890113971</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.0138626001872071</v>
+        <v>2.009951890113971</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6783670349769446</v>
+        <v>2.6731659269457744</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11953,25 +11967,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11980,29 +11994,29 @@
       <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>64302547.383199558</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>1.9045062239440234</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>2.2405955575812042</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>2.2405955575812042</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>2.2405955575812042</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>3.2225863286667673</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12013,14 +12027,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9B3B4FB-979E-442F-B5AA-550535702461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4438F1C9-D762-4079-B70A-EDED50267838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.62438671447842E-2</v>
+        <v>4.6443477920863944E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>4.62</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>132588.75208656001</v>
+        <v>132014.77480479999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4331,7 +4331,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.62088819366149484</v>
+        <v>0.61821966021516905</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.808026792169697</v>
+        <v>12.752978800880339</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.62438671447842E-2</v>
+        <v>4.6443477920863944E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4576,20 +4576,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7084591065968753</v>
+        <v>1.7100361253088878</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>3.0741408159876404</v>
+        <v>3.0769784476122157</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.009951890113971</v>
+        <v>2.0118072062457504</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6731659269457744</v>
+        <v>2.6756334327062747</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11612,17 +11612,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.807603905164838E-2</v>
+        <v>7.841305279445536E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.807603905164838E-2</v>
+        <v>7.841305279445536E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.807603905164838E-2</v>
+        <v>7.841305279445536E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11663,17 +11663,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.62438671447842E-2</v>
+        <v>4.6443477920863944E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.62438671447842E-2</v>
+        <v>4.6443477920863944E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.62438671447842E-2</v>
+        <v>4.6443477920863944E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11733,14 +11733,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9290441104207394</v>
+        <v>7.9411973737424502</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9290441104207394</v>
+        <v>7.9411973737424502</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11761,14 +11761,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0427311807099446</v>
+        <v>4.0464628841466839</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0427311807099446</v>
+        <v>4.0464628841466839</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11811,21 +11811,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>113134832.88145295</v>
+        <v>113308240.59563871</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9421362648551161</v>
+        <v>3.9481785846366249</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9421362648551161</v>
+        <v>3.9481785846366249</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.2429037701944399</v>
+        <v>5.2509398448085056</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11835,14 +11835,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-42213074.232853413</v>
+        <v>-42211756.79037416</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.4708970398066792</v>
+        <v>-1.4708511340706469</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11874,27 +11874,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>70921758.648599535</v>
+        <v>71096483.805264547</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1005533412911714</v>
+        <v>2.1057283329810814</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.471239225048437</v>
+        <v>2.4773274505659781</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.471239225048437</v>
+        <v>2.4773274505659781</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.471239225048437</v>
+        <v>2.4773274505659781</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.7720067303877607</v>
+        <v>3.7800887107378589</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11935,27 +11935,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>57683336.117799565</v>
+        <v>57736581.583305776</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.7084591065968753</v>
+        <v>1.7100361253088878</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.009951890113971</v>
+        <v>2.0118072062457504</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.009951890113971</v>
+        <v>2.0118072062457504</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.009951890113971</v>
+        <v>2.0118072062457504</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6731659269457744</v>
+        <v>2.6756334327062747</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11996,27 +11996,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>64302547.383199558</v>
+        <v>64416532.694285162</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9045062239440234</v>
+        <v>1.9078822291449846</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>2.2405955575812042</v>
+        <v>2.2445673284058643</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.2405955575812042</v>
+        <v>2.2445673284058643</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>2.2405955575812042</v>
+        <v>2.2445673284058643</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>3.2225863286667673</v>
+        <v>3.2278610717220668</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4438F1C9-D762-4079-B70A-EDED50267838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A94741D-D961-4ED6-874A-F02F1BEF926E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -962,10 +955,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -983,6 +972,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>28698864088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>28698864088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>273</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,451 +3039,452 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>234261514</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>222938637</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>183809908</v>
+      </c>
+      <c r="D26" s="148">
+        <v>177260463</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>37506984</v>
+      </c>
+      <c r="D27" s="148">
+        <v>599182</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>183809908</v>
-      </c>
-      <c r="D26" s="149">
-        <v>177260463</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="148">
+        <v>0</v>
+      </c>
+      <c r="D29" s="148">
+        <v>0</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>2199</v>
+      </c>
+      <c r="D30" s="148">
+        <v>645</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148">
+        <v>-169280</v>
+      </c>
+      <c r="D31" s="148">
+        <v>-50846</v>
+      </c>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>37506984</v>
-      </c>
-      <c r="D27" s="149">
-        <v>599182</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148">
+        <v>35974</v>
+      </c>
+      <c r="D32" s="148">
+        <v>32106</v>
+      </c>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="149">
-        <v>0</v>
-      </c>
-      <c r="D29" s="149">
-        <v>0</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>2199</v>
-      </c>
-      <c r="D30" s="149">
-        <v>645</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149">
-        <v>-169280</v>
-      </c>
-      <c r="D31" s="149">
-        <v>-50846</v>
-      </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149">
-        <v>35974</v>
-      </c>
-      <c r="D32" s="149">
-        <v>32106</v>
-      </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="C33" s="148">
         <v>15312</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <v>11600</v>
       </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149">
+      <c r="B34" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148">
         <v>3160304</v>
       </c>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149">
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148">
         <v>131280367</v>
       </c>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149">
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148">
         <v>66848740</v>
       </c>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="148">
         <v>279593282</v>
       </c>
-      <c r="D37" s="149">
+      <c r="D37" s="148">
         <v>734909</v>
       </c>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149">
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148">
         <v>18682</v>
       </c>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149">
+      <c r="C39" s="212"/>
+      <c r="D39" s="148">
         <v>6202</v>
       </c>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149">
+      <c r="C40" s="212"/>
+      <c r="D40" s="148">
         <v>10412</v>
       </c>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>199906611</v>
+      </c>
+      <c r="D41" s="148">
+        <v>2824568</v>
+      </c>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>199906611</v>
-      </c>
-      <c r="D41" s="149">
-        <v>2824568</v>
-      </c>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>39516717</v>
       </c>
-      <c r="D42" s="149">
+      <c r="D42" s="148">
         <v>7297</v>
       </c>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149">
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148">
         <v>2868641</v>
       </c>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <v>0.2</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="151">
+        <v>232</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6443477920863944E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>4.6534494983171679E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <v>47742240</v>
@@ -3497,11 +3492,11 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59">
         <v>0</v>
@@ -3509,11 +3504,11 @@
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59">
         <v>121633388</v>
@@ -3522,11 +3517,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59">
         <v>7768559</v>
@@ -3534,11 +3529,11 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59">
         <v>0</v>
@@ -3546,11 +3541,11 @@
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -3559,11 +3554,11 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C54" s="59">
         <v>44533603</v>
@@ -3571,11 +3566,11 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59">
         <v>86201047</v>
@@ -3584,11 +3579,11 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59">
         <v>0</v>
@@ -3597,13 +3592,13 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59">
         <v>0</v>
@@ -3611,13 +3606,13 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59">
         <v>0</v>
@@ -3626,24 +3621,24 @@
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118">
         <v>11709109</v>
       </c>
-      <c r="D59" s="194">
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59">
         <v>0</v>
@@ -3652,11 +3647,11 @@
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59">
         <v>2881955</v>
@@ -3665,11 +3660,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59">
         <v>821946</v>
@@ -3678,11 +3673,11 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -3691,11 +3686,11 @@
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C64" s="59">
         <v>7301425</v>
@@ -3703,11 +3698,11 @@
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59">
         <v>21620835</v>
@@ -3715,13 +3710,13 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59">
         <v>805212</v>
@@ -3729,13 +3724,13 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59">
         <v>6765810</v>
@@ -3744,13 +3739,13 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <v>60750263</v>
@@ -3759,11 +3754,11 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59">
         <v>0</v>
@@ -3772,11 +3767,11 @@
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <v>17178235</v>
@@ -3784,11 +3779,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>4163174</v>
@@ -3797,23 +3792,23 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242">
         <v>37623092</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59">
         <v>12970041</v>
@@ -3821,7 +3816,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59">
         <v>13416</v>
@@ -3829,17 +3824,17 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119">
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118">
         <v>9668</v>
       </c>
     </row>
@@ -3847,13 +3842,13 @@
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>255569971</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59">
         <v>6315552</v>
@@ -3861,7 +3856,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59">
         <v>1694399</v>
@@ -3869,77 +3864,77 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="C82" s="214">
+        <v>262</v>
+      </c>
+      <c r="C82" s="212">
         <v>24023311</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="214">
+        <v>263</v>
+      </c>
+      <c r="C83" s="212">
         <v>160389894</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3948,166 +3943,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>234261514</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>234261514</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>234261514</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>183809908</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.78463553343209413</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>183809908</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>183809908</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>37506984</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.16010732347610457</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>37506984</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>37506984</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>238</v>
+      <c r="B94" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>0</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>0</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>20662</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>8.8200573996119572E-5</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>20662</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>20662</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>2932</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>1.2515926965280349E-5</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>2932</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.2</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.2</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.2</v>
       </c>
@@ -4120,32 +4115,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4204,13 +4199,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4221,82 +4216,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>1766.HK : 中国中车</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>1766.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>4.59</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>中国中车</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>28698864088</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>132014.77480479999</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>131727.78616391998</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4307,31 +4302,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0004</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4340,280 +4335,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>8.0688936673279421E-2</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.33449411843768651</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>0.48855383999011653</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>5.5244627164835962E-2</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.61821966021516905</v>
+        <v>0.6170104811458782</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.752978800880339</v>
+        <v>12.728035182892249</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.59229268936393198</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>8.8200573996119572E-5</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6443477920863944E-2</v>
+        <v>4.6534494983171679E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7100361253088878</v>
-      </c>
-      <c r="D29" s="128">
+        <v>1.7104062339282606</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>3.0769784476122157</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>3.0776444079555274</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0118072062457504</v>
-      </c>
-      <c r="G29" s="286">
+        <v>2.0122426281508949</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6756334327062747</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>2.6762125286569804</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4621,9 +4616,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4631,17 +4626,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4649,26 +4644,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4676,9 +4671,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4691,16 +4686,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5652,10 +5647,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5681,59 +5676,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>12941690</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5741,19 +5736,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5802,928 +5797,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>234261514</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>222938637</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>5.078920887095939E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>183809908</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>177260463</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>50451606</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>45678174</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>37506984</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>599182</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2932</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>860</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>5.5244627164835962E-2</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.20219972906715133</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>12941690</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>45078132</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.71290536173947938</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-169280</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-50846</v>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>1.5356342314085786E-4</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>1.4401272220929565E-4</v>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>35974</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>32106</v>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>6.5362849144738304E-5</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>5.2032254956326836E-5</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>15312</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>11600</v>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>12921028</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>45057626</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>4.1367319943129879E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>0.15158081144992377</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>9690771</v>
       </c>
@@ -6767,63 +6762,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.71323327154431082</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6869,11 +6864,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6920,266 +6915,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>121633388</v>
       </c>
-      <c r="D28" s="198">
+      <c r="D28" s="196">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>131280367</v>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>86201047</v>
       </c>
-      <c r="D29" s="198">
+      <c r="D29" s="196">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>66848740</v>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>260</v>
+      <c r="B30" s="93" t="s">
+        <v>258</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>279593282</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>734909</v>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>12993125</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="196">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>6202</v>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>8009951</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="196">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>10412</v>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7226,165 +7221,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>199906611</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>2824568</v>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>39516717</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>7297</v>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="196">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>2868641</v>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7430,63 +7425,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>3.2528320965128699E-2</v>
       </c>
-      <c r="D38" s="154">
+      <c r="D38" s="153">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>65.251567665842543</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7499,372 +7494,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.78463553343209413</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.79510875900797762</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.16010732347610457</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>2.6876543611415371E-3</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.2515926965280349E-5</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>3.8575637295207831E-6</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>8.8200573996119572E-5</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>9.1980467252968803E-5</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>5.5156426590839844E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.20210774859989836</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>264</v>
+      <c r="B47" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>261</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7876,216 +7871,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>0.48855383999011653</v>
       </c>
-      <c r="D48" s="269">
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
         <v>62.632413975423916</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.51922053231500931</v>
       </c>
-      <c r="D49" s="152">
+      <c r="D49" s="151">
         <f t="shared" si="42"/>
         <v>0.58886323504346172</v>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.36796930715644566</v>
       </c>
-      <c r="D50" s="152">
+      <c r="D50" s="151">
         <f t="shared" si="43"/>
         <v>0.29985264510251758</v>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-1.4950263965598143E-2</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>247</v>
+      <c r="B52" s="101" t="s">
+        <v>245</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8101,350 +8096,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.33449411843768651</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
         <v>0.79148453550900877</v>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.61519693591548208</v>
       </c>
-      <c r="D54" s="156">
+      <c r="D54" s="155">
         <f t="shared" si="46"/>
         <v>2712.0275671120739</v>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152" t="str">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151" t="str">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-</v>
       </c>
-      <c r="D55" s="152" t="str">
+      <c r="D55" s="151" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>5.2485238702202602E-3</v>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>8.0688936673279421E-2</v>
       </c>
-      <c r="D58" s="271">
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
         <v>16.000637496357289</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>8.0560113095404881E-2</v>
       </c>
-      <c r="D59" s="271">
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
         <v>15.993358821355844</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9723,7 +9718,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9741,7 +9736,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9759,25 +9754,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>199906611</v>
       </c>
@@ -9785,12 +9780,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>160389894</v>
       </c>
@@ -9798,28 +9793,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>39516717</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9832,7 +9827,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>-131620258</v>
@@ -9841,16 +9836,16 @@
         <f>1-D6/D3</f>
         <v>1.6584087306647404</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>0.86738590270450822</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9858,7 +9853,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9868,287 +9863,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>0.69313380717956097</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>47742240</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>42968016</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>12970041</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>13416</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>121633388</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>72980032.799999997</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>7768559</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>4661135.3999999994</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>9668</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>12993125</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>44533603</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>4453360.3</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>86201047</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>43100523.5</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10159,21 +10154,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10186,45 +10181,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>11709109</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>585455.45000000007</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10232,17 +10227,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10252,19 +10247,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.68085318656265026</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>120609184.2</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.71472734536688487</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10274,17 +10269,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>4453360.3</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>2.6390514174303433E-2</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10293,7 +10288,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10303,17 +10298,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>43100523.5</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0.25541274447222434</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10326,7 +10321,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10336,17 +10331,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0.05</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>585455.45000000007</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>3.4693959865875206E-3</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10373,12 +10368,12 @@
         <f>SUM(E24:E27)</f>
         <v>168748523.44999999</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>255569971</v>
       </c>
@@ -10388,171 +10383,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>6315552</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>2881955</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>1729173</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>1694399</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>821946</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>410973</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>7301425</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>2920570</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>8009951</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>21620835</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>2162083.5</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10560,25 +10555,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>805212</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>161042.40000000002</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10586,26 +10581,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>6765810</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>676581</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10613,113 +10608,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>60750263</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>6075026.3000000007</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>17178235</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>858911.75</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>4163174</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>3746856.6</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>37623092</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10727,17 +10722,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10747,16 +10742,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0.6</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>1729173</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10766,16 +10761,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.18469568493440369</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>5493626.5</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10785,14 +10780,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.10117856682584353</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>6912649.7000000011</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10805,7 +10800,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10815,14 +10810,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>7.8110867927127875E-2</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>4605768.3499999996</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10835,13 +10830,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>159911947</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.11719710691784649</v>
       </c>
@@ -10849,12 +10844,12 @@
         <f>SUM(E30:E42)</f>
         <v>18741217.550000001</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>24023311</v>
       </c>
@@ -10865,63 +10860,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>479499893</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.39101101738931981</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>187489741</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>279593282</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>39516717</v>
       </c>
@@ -10929,45 +10924,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>39516717</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>21003076</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10975,61 +10970,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11043,35 +11038,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>9124407.2999999989</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>47742240</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>42968016</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11085,29 +11080,29 @@
         <f>E61+E62</f>
         <v>52092423.299999997</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>21003076</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11121,9 +11116,9 @@
         <f>E63-E64</f>
         <v>31089347.299999997</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11131,28 +11126,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11166,29 +11161,29 @@
         <f>E49-E63</f>
         <v>135397317.69999999</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>258590206</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11202,29 +11197,29 @@
         <f>E68-E69</f>
         <v>-123192888.30000001</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11234,66 +11229,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>234261514</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>234261514</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>234261514</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>183809908</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.78463553343209413</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>183809908</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.78463553343209413</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>183809908</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.78463553343209413</v>
       </c>
@@ -11301,50 +11296,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>50451606</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>50451606</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>50451606</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>37506984</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.16010732347610457</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>37506984</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.16010732347610457</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>37506984</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.16010732347610457</v>
       </c>
@@ -11352,60 +11347,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>2932</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>1.2515926965280349E-5</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>2932</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>1.2515926965280349E-5</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>2932</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>1.2515926965280349E-5</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>12941690</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>5.5244627164835962E-2</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>12941690</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>5.5244627164835962E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>12941690</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>5.5244627164835962E-2</v>
       </c>
@@ -11413,61 +11408,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>238</v>
+      <c r="B81" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>0</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>0</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>0</v>
       </c>
@@ -11475,59 +11470,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>20662</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>8.8200573996119572E-5</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>20662</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>8.8200573996119572E-5</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>20662</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>8.8200573996119572E-5</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>12921028</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>5.5156426590839844E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>12921028</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>5.5156426590839844E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>12921028</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>5.5156426590839844E-2</v>
       </c>
@@ -11535,184 +11530,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>9690771</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>4.1367319943129879E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>9690771</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>4.1367319943129879E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>9690771</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>4.1367319943129879E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.33767089074623169</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.33767089074623169</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.33767089074623169</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.841305279445536E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>7.8566721856968141E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.841305279445536E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>7.8566721856968141E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.841305279445536E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>7.8566721856968141E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.2</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.59229268936393198</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.2</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.59229268936393198</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.2</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.59229268936393198</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6443477920863944E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>4.6534494983171679E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6443477920863944E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>4.6534494983171679E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6443477920863944E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>4.6534494983171679E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11720,55 +11715,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9411973737424502</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>7.9451210408530404</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9411973737424502</v>
+        <v>7.9451210408530404</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0464628841466839</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>4.047338673125191</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0464628841466839</v>
+        <v>4.047338673125191</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11778,123 +11773,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>113308240.59563871</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>113364225.077079</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9481785846366249</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>3.9501293406410656</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9481785846366249</v>
-      </c>
-      <c r="I97" s="122">
+        <v>3.9501293406410656</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.2509398448085056</v>
+        <v>5.2535342822716631</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>-42202536.263272643</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>-1.4705298486332428</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>-42211756.79037416</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.4708511340706469</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>71096483.805264547</v>
-      </c>
-      <c r="D100" s="109">
+        <v>71161688.813806355</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1057283329810814</v>
-      </c>
-      <c r="E100" s="109">
+        <v>2.1076595682066492</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.4773274505659781</v>
-      </c>
-      <c r="F100" s="109">
+        <v>2.4795994920078228</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>2.4773274505659781</v>
-      </c>
-      <c r="H100" s="109">
+        <v>2.4795994920078228</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4773274505659781</v>
-      </c>
-      <c r="I100" s="109">
+        <v>2.4795994920078228</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.7800887107378589</v>
+        <v>3.7830044336384203</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11904,58 +11899,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>57736581.583305776</v>
-      </c>
-      <c r="D103" s="109">
+        <v>57749077.697382458</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.7100361253088878</v>
-      </c>
-      <c r="E103" s="122">
+        <v>1.7104062339282606</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.0118072062457504</v>
-      </c>
-      <c r="F103" s="109">
+        <v>2.0122426281508949</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>2.0118072062457504</v>
-      </c>
-      <c r="H103" s="122">
+        <v>2.0122426281508949</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.0118072062457504</v>
-      </c>
-      <c r="I103" s="109">
+        <v>2.0122426281508949</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6756334327062747</v>
+        <v>2.6762125286569804</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11965,58 +11960,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>64416532.694285162</v>
-      </c>
-      <c r="D106" s="109">
+        <v>64455383.255594403</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.9078822291449846</v>
-      </c>
-      <c r="E106" s="122">
+        <v>1.9090329010674549</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.2445673284058643</v>
-      </c>
-      <c r="F106" s="109">
+        <v>2.2459210600793589</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.2445673284058643</v>
-      </c>
-      <c r="H106" s="122">
+        <v>2.2459210600793589</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.2445673284058643</v>
-      </c>
-      <c r="I106" s="122">
+        <v>2.2459210600793589</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.2278610717220668</v>
+        <v>3.2296084811477002</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12025,15 +12020,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A94741D-D961-4ED6-874A-F02F1BEF926E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95F0E926-7CAF-47CE-BF49-CDAC2622C458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -980,6 +980,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2976,7 +2993,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3424,7 +3441,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6534494983171679E-2</v>
+        <v>4.4847437981463956E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3915,7 +3932,7 @@
         <v>230</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3925,11 +3942,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3943,10 +3960,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4168,8 +4185,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4182,8 +4202,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4226,60 +4246,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>1766.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>4.59</v>
+        <v>4.76</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>中国中车</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>28698864088</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>131727.78616391998</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>136606.59305887998</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4302,11 +4322,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4326,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4447,7 +4467,7 @@
         <v>248</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>8.0688936673279421E-2</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4459,20 +4479,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.33449411843768651</v>
+        <v>253</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>5.5244627164835962E-2</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>0.48855383999011653</v>
       </c>
@@ -4481,26 +4501,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>5.5244627164835962E-2</v>
+      <c r="B23" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>2.9895891882065837</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.6170104811458782</v>
+        <v>0.64022098991060261</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
@@ -4509,7 +4529,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.728035182892249</v>
+        <v>13.206834459723975</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4541,7 +4561,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.6534494983171679E-2</v>
+        <v>4.4847437981463956E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4560,10 +4580,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>237</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4571,22 +4591,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7104062339282606</v>
+        <v>1.6957149252264221</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>3.0776444079555274</v>
+        <v>3.0512093873300947</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0122426281508949</v>
-      </c>
-      <c r="G29" s="285">
+        <v>1.9949587355604967</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6762125286569804</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>2.6532255542000827</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5617,7 +5637,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7858,7 +7878,7 @@
       <c r="B47" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>261</v>
       </c>
       <c r="D47" s="36"/>
@@ -9785,7 +9805,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>160389894</v>
       </c>
@@ -10832,7 +10852,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>159911947</v>
       </c>
@@ -10849,7 +10869,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>24023311</v>
       </c>
@@ -10958,11 +10978,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>21003076</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10973,11 +10993,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10989,11 +11009,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11207,19 +11227,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11229,18 +11249,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11607,17 +11627,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8566721856968141E-2</v>
+        <v>7.5718371654436581E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8566721856968141E-2</v>
+        <v>7.5718371654436581E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8566721856968141E-2</v>
+        <v>7.5718371654436581E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11658,17 +11678,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6534494983171679E-2</v>
+        <v>4.4847437981463956E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6534494983171679E-2</v>
+        <v>4.4847437981463956E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.6534494983171679E-2</v>
+        <v>4.4847437981463956E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11699,15 +11719,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11728,14 +11748,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9451210408530404</v>
+        <v>7.8363759809017353</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9451210408530404</v>
+        <v>7.8363759809017353</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11756,14 +11776,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.047338673125191</v>
+        <v>4.0125745915355155</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.047338673125191</v>
+        <v>4.0125745915355155</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11806,21 +11826,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>113364225.077079</v>
+        <v>111812606.24220513</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9501293406410656</v>
+        <v>3.8960638267546588</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9501293406410656</v>
+        <v>3.8960638267546588</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.2535342822716631</v>
+        <v>5.1816290340640752</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11830,14 +11850,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-42202536.263272643</v>
+        <v>-42178919.654347777</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.4705298486332428</v>
+        <v>-1.4697069377036516</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11869,27 +11889,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>71161688.813806355</v>
+        <v>69633686.587857351</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1076595682066492</v>
+        <v>2.0624033556933559</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.4795994920078228</v>
+        <v>2.4263568890510072</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>2.4795994920078228</v>
+        <v>2.4263568890510072</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4795994920078228</v>
+        <v>2.4263568890510072</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.7830044336384203</v>
+        <v>3.7119220963604236</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11930,27 +11950,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>57749077.697382458</v>
+        <v>57253049.613019027</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.7104062339282606</v>
+        <v>1.6957149252264221</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.0122426281508949</v>
+        <v>1.9949587355604967</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>2.0122426281508949</v>
+        <v>1.9949587355604967</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.0122426281508949</v>
+        <v>1.9949587355604967</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6762125286569804</v>
+        <v>2.6532255542000827</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11991,27 +12011,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>64455383.255594403</v>
+        <v>63443368.100438185</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.9090329010674549</v>
+        <v>1.8790591404598889</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.2459210600793589</v>
+        <v>2.2106578123057519</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.2459210600793589</v>
+        <v>2.2106578123057519</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.2459210600793589</v>
+        <v>2.2106578123057519</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.2296084811477002</v>
+        <v>3.1825738252802531</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95F0E926-7CAF-47CE-BF49-CDAC2622C458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6084B15B-5F6B-43D0-A0BB-06D420A31F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.4847437981463956E-2</v>
+        <v>4.6434482111823508E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>4.76</v>
+        <v>4.59</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>136606.59305887998</v>
+        <v>131727.78616391998</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4346,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.64022098991060261</v>
+        <v>0.61833942866644509</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.206834459723975</v>
+        <v>12.755449451068991</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4847437981463956E-2</v>
+        <v>4.6434482111823508E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4591,20 +4591,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.6957149252264221</v>
+        <v>1.7059148254537124</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>3.0512093873300947</v>
+        <v>3.0695627265974141</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9949587355604967</v>
+        <v>2.0069586181808381</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6532255542000827</v>
+        <v>2.6691849796499256</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9756,7 +9756,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11627,17 +11627,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5718371654436581E-2</v>
+        <v>7.8397864680197007E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5718371654436581E-2</v>
+        <v>7.8397864680197007E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5718371654436581E-2</v>
+        <v>7.8397864680197007E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11678,17 +11678,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4847437981463956E-2</v>
+        <v>4.6434482111823508E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4847437981463956E-2</v>
+        <v>4.6434482111823508E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4847437981463956E-2</v>
+        <v>4.6434482111823508E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11748,14 +11748,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8363759809017353</v>
+        <v>7.9218412148651769</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8363759809017353</v>
+        <v>7.9218412148651769</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11776,14 +11776,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0125745915355155</v>
+        <v>4.0367106416930953</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.0125745915355155</v>
+        <v>4.0367106416930953</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11826,21 +11826,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>111812606.24220513</v>
+        <v>113032059.032097</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.8960638267546588</v>
+        <v>3.9385551527581071</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8960638267546588</v>
+        <v>3.9385551527581071</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1816290340640752</v>
+        <v>5.2381410159785888</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11850,14 +11850,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-42178919.654347777</v>
+        <v>-42111833.724620581</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.4697069377036516</v>
+        <v>-1.4673693563442818</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11867,18 +11867,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-98152106.209652364</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-3.9330797830530568</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-3.4200693765678758</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11889,27 +11889,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>69633686.587857351</v>
+        <v>-27231880.902175948</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.0624033556933559</v>
+        <v>0</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.4263568890510072</v>
+        <v>0</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>2.4263568890510072</v>
+        <v>0</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4263568890510072</v>
+        <v>0</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.7119220963604236</v>
+        <v>0.35070228306643125</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11950,27 +11950,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>57253049.613019027</v>
+        <v>57597432.613412157</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.6957149252264221</v>
+        <v>1.7059148254537124</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.9949587355604967</v>
+        <v>2.0069586181808381</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.9949587355604967</v>
+        <v>2.0069586181808381</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.9949587355604967</v>
+        <v>2.0069586181808381</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6532255542000827</v>
+        <v>2.6691849796499256</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12011,27 +12011,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>63443368.100438185</v>
+        <v>28798716.306706078</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.8790591404598889</v>
+        <v>0.85295741272685621</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.2106578123057519</v>
+        <v>1.003479309090419</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.2106578123057519</v>
+        <v>1.003479309090419</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.2106578123057519</v>
+        <v>1.003479309090419</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.1825738252802531</v>
+        <v>1.5099436313581784</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E227EF8-CE83-4337-A127-E06C03D9E3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCD2C6D3-6131-4570-B908-B4F9F736FF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.4421837739672364E-2</v>
+        <v>4.4051194042892934E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>4.79</v>
+        <v>4.83</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>137467.55898151998</v>
+        <v>138615.51354504001</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4559,7 +4559,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4690,7 +4690,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.64635486959614885</v>
+        <v>0.65179325471835992</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.3333675395191</v>
+        <v>13.445553570856962</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4421837739672364E-2</v>
+        <v>4.4051194042892934E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4809,20 +4809,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.045028611612322</v>
+        <v>1.6836725403938044</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.283087486851453</v>
+        <v>3.0295407465105195</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4059160136615554</v>
+        <v>1.9807912239927112</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.8548586842186552</v>
+        <v>2.6343832578352346</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-3.4143941919473195</v>
+        <v>-3.4141802024683456</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-3.4143941919473195</v>
+        <v>-3.4141802024683456</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-3.4143941919473195</v>
+        <v>-3.4141802024683456</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11859,17 +11859,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4999807590698686E-2</v>
+        <v>7.4374029654493759E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4999807590698686E-2</v>
+        <v>7.4374029654493759E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4999807590698686E-2</v>
+        <v>7.4374029654493759E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11910,17 +11910,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4421837739672364E-2</v>
+        <v>4.4051194042892934E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4421837739672364E-2</v>
+        <v>4.4051194042892934E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4421837739672364E-2</v>
+        <v>4.4051194042892934E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11973,21 +11973,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.7365097019212712</v>
+        <v>7.7617574947086077</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.7365097019212712</v>
+        <v>7.7617574947086077</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12008,14 +12008,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.6590975172775169</v>
+        <v>3.9840786653146609</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.6590975172775169</v>
+        <v>3.9840786653146609</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12058,21 +12058,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>127117729.17756687</v>
+        <v>110747919.27013598</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.4293644789488109</v>
+        <v>3.8589652513962589</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.4293644789488109</v>
+        <v>3.8589652513962589</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.2558815754553088</v>
+        <v>5.1322892224625738</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12082,14 +12082,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-42041954.314356327</v>
+        <v>-42039319.429397821</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.46493443731578</v>
+        <v>-1.4648426258437153</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12100,17 +12100,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-97989234.857552707</v>
+        <v>-97983093.60257937</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-3.4143941919473195</v>
+        <v>-3.4141802024683456</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-3.4143941919473195</v>
+        <v>-3.4141802024683456</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12138,7 +12138,7 @@
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.37655294619220925</v>
+        <v>0.25326639415051266</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12177,23 +12177,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.045028611612322</v>
+        <v>1.6836725403938044</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.4059160136615554</v>
+        <v>1.9807912239927112</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>2.4059160136615554</v>
+        <v>1.9807912239927112</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.4059160136615554</v>
+        <v>1.9807912239927112</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.8548586842186552</v>
+        <v>2.6343832578352346</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12232,23 +12232,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>1.022514305806161</v>
+        <v>0.84183627019690221</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>1.2029580068307777</v>
+        <v>0.99039561199635562</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>1.2029580068307777</v>
+        <v>0.99039561199635562</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>1.2029580068307777</v>
+        <v>0.99039561199635562</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>1.6157058152054322</v>
+        <v>1.4438248259928737</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCD2C6D3-6131-4570-B908-B4F9F736FF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2275874E-3974-4E5F-88D8-242A624A2999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>280</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4374,7 +4375,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4397,6 +4398,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4415,8 +4419,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4452,18 +4456,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>1766.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4479,7 +4486,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>中国中车</v>
       </c>
@@ -4508,11 +4515,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>138615.51354504001</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4535,11 +4542,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4607,10 +4614,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4657,7 +4664,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4798,10 +4805,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4809,22 +4816,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.6836725403938044</v>
+        <v>1.8436910049766866</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.0295407465105195</v>
+        <v>3.4066882858185323</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9807912239927112</v>
-      </c>
-      <c r="G29" s="312">
+        <v>2.169048241149043</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6343832578352346</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>2.9623376398422021</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5806,15 +5813,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5842,7 +5850,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11969,7 +11977,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11980,14 +11988,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.7617574947086077</v>
+        <v>8.4994451904866963</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.7617574947086077</v>
+        <v>8.4994451904866963</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12008,14 +12016,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.9840786653146609</v>
+        <v>4.3627307698693594</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.9840786653146609</v>
+        <v>4.3627307698693594</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12058,21 +12066,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>110747919.27013598</v>
+        <v>121273547.9610993</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.8589652513962589</v>
+        <v>4.2257264116529276</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8589652513962589</v>
+        <v>4.2257264116529276</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1322892224625738</v>
+        <v>5.7712079277146113</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12138,7 +12146,7 @@
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.25326639415051266</v>
+        <v>0.8921850994025502</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12177,23 +12185,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.6836725403938044</v>
+        <v>1.8436910049766866</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.9807912239927112</v>
+        <v>2.169048241149043</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.9807912239927112</v>
+        <v>2.169048241149043</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.9807912239927112</v>
+        <v>2.169048241149043</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.6343832578352346</v>
+        <v>2.9623376398422021</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12232,23 +12240,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.84183627019690221</v>
+        <v>0.92184550248834329</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0.99039561199635562</v>
+        <v>1.0845241205745215</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0.99039561199635562</v>
+        <v>1.0845241205745215</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0.99039561199635562</v>
+        <v>1.0845241205745215</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>1.4438248259928737</v>
+        <v>1.9272613696223762</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2275874E-3974-4E5F-88D8-242A624A2999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19AE6239-C656-4C5A-8561-59BED6BB5FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.4051194042892934E-2</v>
+        <v>4.4142586561654124E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4456,27 +4456,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>1766.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4486,40 +4486,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>中国中车</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>28698864088</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>138615.51354504001</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>138328.52490416</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4542,11 +4542,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4697,7 +4697,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.65179325471835992</v>
+        <v>0.6504437862820901</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.445553570856962</v>
+        <v>13.417715985824131</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4051194042892934E-2</v>
+        <v>4.4142586561654124E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4805,10 +4805,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4816,22 +4816,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.8436910049766866</v>
+        <v>2.0314972675082217</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.4066882858185323</v>
+        <v>3.5268536101204742</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.169048241149043</v>
-      </c>
-      <c r="G29" s="313">
+        <v>2.3899967853037904</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.9623376398422021</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>3.0668292261917167</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5814,15 +5814,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11195,7 +11195,7 @@
         <f>I15+I34</f>
         <v>21003076</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11206,11 +11206,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11222,11 +11222,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11867,17 +11867,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4374029654493759E-2</v>
+        <v>7.4528332620581908E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4374029654493759E-2</v>
+        <v>7.4528332620581908E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4374029654493759E-2</v>
+        <v>7.4528332620581908E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11918,17 +11918,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4051194042892934E-2</v>
+        <v>4.4142586561654124E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4051194042892934E-2</v>
+        <v>4.4142586561654124E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4051194042892934E-2</v>
+        <v>4.4142586561654124E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11981,21 +11981,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.4994451904866963</v>
+        <v>7.9156130102986664</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.4994451904866963</v>
+        <v>7.9156130102986664</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12016,14 +12016,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.3627307698693594</v>
+        <v>4.1801193149762366</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.3627307698693594</v>
+        <v>4.1801193149762366</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12066,21 +12066,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>121273547.9610993</v>
+        <v>129884671.3416639</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.2257264116529276</v>
+        <v>4.5257774294967037</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.2257264116529276</v>
+        <v>4.5257774294967037</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.7712079277146113</v>
+        <v>5.807449858245338</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12146,7 +12146,7 @@
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.8921850994025502</v>
+        <v>0.92842702993327686</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12185,23 +12185,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.8436910049766866</v>
+        <v>2.0314972675082217</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.169048241149043</v>
+        <v>2.3899967853037904</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>2.169048241149043</v>
+        <v>2.3899967853037904</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.169048241149043</v>
+        <v>2.3899967853037904</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.9623376398422021</v>
+        <v>3.0668292261917167</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12240,23 +12240,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.92184550248834329</v>
+        <v>1.0157486337541108</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>1.0845241205745215</v>
+        <v>1.1949983926518952</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>1.0845241205745215</v>
+        <v>1.1949983926518952</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>1.0845241205745215</v>
+        <v>1.1949983926518952</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>1.9272613696223762</v>
+        <v>1.9976281280624968</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8125A8E-F642-4FED-AA5B-CC8C99D2C3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE6F28B6-A755-4BCB-A988-638D0C4A75AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.4141204855089197E-2</v>
+        <v>4.3802784630627624E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4482,27 +4482,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>1766.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>4.82</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4512,7 +4512,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>中国中车</v>
       </c>
@@ -4541,11 +4541,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>138328.52490416</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>139476.47946768004</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4568,11 +4568,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4592,7 +4592,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.65046414645242445</v>
+        <v>0.65548963111745007</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.418135986735406</v>
+        <v>13.521804477923332</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.4141204855089197E-2</v>
+        <v>4.3802784630627624E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4831,10 +4831,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4842,22 +4842,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.0483514513216106</v>
+        <v>2.0468598537445031</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.5627038904858366</v>
+        <v>3.5601095502970121</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4098252368489539</v>
-      </c>
-      <c r="G29" s="313">
+        <v>2.4080704161700037</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.0980033830311626</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>3.0957474350408805</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5840,15 +5840,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11409,7 +11409,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-3.4140733352553654</v>
+        <v>-3.4160137785879434</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-3.4140733352553654</v>
+        <v>-3.4160137785879434</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-3.4140733352553654</v>
+        <v>-3.4160137785879434</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11995,17 +11995,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4525999810149277E-2</v>
+        <v>7.3954626516946884E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4525999810149277E-2</v>
+        <v>7.3954626516946884E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4525999810149277E-2</v>
+        <v>7.3954626516946884E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12046,17 +12046,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4141204855089197E-2</v>
+        <v>4.3802784630627624E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4141204855089197E-2</v>
+        <v>4.3802784630627624E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4141204855089197E-2</v>
+        <v>4.3802784630627624E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12116,14 +12116,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9812573109291183</v>
+        <v>7.968821522371214</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9812573109291183</v>
+        <v>7.968821522371214</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12144,14 +12144,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.214799400656549</v>
+        <v>4.2117302083214359</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.214799400656549</v>
+        <v>4.2117302083214359</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12194,21 +12194,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>130961806.92190848</v>
+        <v>130757752.18759842</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.5633097714368489</v>
+        <v>4.5561995689673589</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.5633097714368489</v>
+        <v>4.5561995689673589</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.866462386382846</v>
+        <v>5.8573217105497219</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12218,14 +12218,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-42038003.557171822</v>
+        <v>-42061896.530669212</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.4647967748225053</v>
+        <v>-1.4656293155608471</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12236,17 +12236,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-97980026.634958595</v>
+        <v>-98035715.154430717</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-3.4140733352553654</v>
+        <v>-3.4160137785879434</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-3.4140733352553654</v>
+        <v>-3.4160137785879434</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12274,7 +12274,7 @@
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.98759227630497515</v>
+        <v>0.97567861640093101</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12313,23 +12313,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0483514513216106</v>
+        <v>2.0468598537445031</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.4098252368489539</v>
+        <v>2.4080704161700037</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>2.4098252368489539</v>
+        <v>2.4080704161700037</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.4098252368489539</v>
+        <v>2.4080704161700037</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.0980033830311626</v>
+        <v>3.0957474350408805</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12368,23 +12368,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>1.0241757256608053</v>
+        <v>1.0234299268722515</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>1.2049126184244769</v>
+        <v>1.2040352080850019</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>1.2049126184244769</v>
+        <v>1.2040352080850019</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>1.2049126184244769</v>
+        <v>1.2040352080850019</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>2.0427978296680687</v>
+        <v>2.0357130257209057</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1766.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1766.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE6F28B6-A755-4BCB-A988-638D0C4A75AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE5E343-76A4-4E7E-8AB5-4A09C4CAA3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.3802784630627624E-2</v>
+        <v>4.4319234793602627E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4482,27 +4482,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>1766.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>4.8600000000000003</v>
+        <v>4.79</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4512,40 +4512,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>中国中车</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>28698864088</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>139476.47946768004</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>137467.55898151998</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4568,11 +4568,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4592,7 +4592,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.65548963111745007</v>
+        <v>0.64785123825269098</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.521804477923332</v>
+        <v>13.364235463953179</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.3802784630627624E-2</v>
+        <v>4.4319234793602627E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4831,10 +4831,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4842,22 +4842,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.0468598537445031</v>
+        <v>2.0452066171988119</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.5601095502970121</v>
+        <v>3.5572340709599932</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4080704161700037</v>
-      </c>
-      <c r="G29" s="314">
+        <v>2.4061254319986021</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.0957474350408805</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>3.0932470182260814</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5840,15 +5840,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11323,7 +11323,7 @@
         <f>I15+I34</f>
         <v>21003076</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11334,11 +11334,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11350,11 +11350,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11409,7 +11409,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-3.4160137785879434</v>
+        <v>-3.4065078252195358</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-3.4160137785879434</v>
+        <v>-3.4065078252195358</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-3.4160137785879434</v>
+        <v>-3.4065078252195358</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11995,17 +11995,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3954626516946884E-2</v>
+        <v>7.482657744973592E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3954626516946884E-2</v>
+        <v>7.482657744973592E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3954626516946884E-2</v>
+        <v>7.482657744973592E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12046,17 +12046,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3802784630627624E-2</v>
+        <v>4.4319234793602627E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3802784630627624E-2</v>
+        <v>4.4319234793602627E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3802784630627624E-2</v>
+        <v>4.4319234793602627E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12116,14 +12116,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.968821522371214</v>
+        <v>7.9724853762283434</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.968821522371214</v>
+        <v>7.9724853762283434</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12144,14 +12144,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2117302083214359</v>
+        <v>4.2083284188495034</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.2117302083214359</v>
+        <v>4.2083284188495034</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12194,21 +12194,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>130757752.18759842</v>
+        <v>130817871.15165818</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.5561995689673589</v>
+        <v>4.5582943893015511</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.5561995689673589</v>
+        <v>4.5582943893015511</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.8573217105497219</v>
+        <v>5.8600147525109954</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12218,14 +12218,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-42061896.530669212</v>
+        <v>-41944848.2829386</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.4656293155608471</v>
+        <v>-1.4615508179808834</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12236,17 +12236,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-98035715.154430717</v>
+        <v>-97762905.090683907</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-3.4160137785879434</v>
+        <v>-3.4065078252195358</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-3.4160137785879434</v>
+        <v>-3.4065078252195358</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12274,7 +12274,7 @@
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0.97567861640093101</v>
+        <v>0.99195610931057576</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12313,23 +12313,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0468598537445031</v>
+        <v>2.0452066171988119</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.4080704161700037</v>
+        <v>2.4061254319986021</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>2.4080704161700037</v>
+        <v>2.4061254319986021</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.4080704161700037</v>
+        <v>2.4061254319986021</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.0957474350408805</v>
+        <v>3.0932470182260814</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12368,23 +12368,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>1.0234299268722515</v>
+        <v>1.022603308599406</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>1.2040352080850019</v>
+        <v>1.203062715999301</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>1.2040352080850019</v>
+        <v>1.203062715999301</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>1.2040352080850019</v>
+        <v>1.203062715999301</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>2.0357130257209057</v>
+        <v>2.0426015637683284</v>
       </c>
       <c r="K106" s="75"/>
     </row>
